--- a/data/income_statement/2digits/size/01_IS_MEDIUM.xlsx
+++ b/data/income_statement/2digits/size/01_IS_MEDIUM.xlsx
@@ -3,198 +3,25 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr codeName="ThisWorkbook"/>
   <bookViews>
-    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="934" visibility="visible" windowHeight="2385" windowWidth="4830" xWindow="600" yWindow="2550"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="600" yWindow="2550" windowWidth="4830" windowHeight="2385" tabRatio="934" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="KGEL" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName localSheetId="0" name="\u">#REF!</definedName>
+    <definedName name="\u" localSheetId="0">#REF!</definedName>
     <definedName name="\u">#REF!</definedName>
-    <definedName localSheetId="0" name="_xlnm.Print_Area">KGEL!$A$1:$M$61</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">'KGEL'!$A$1:$N$61</definedName>
   </definedNames>
   <calcPr calcId="162913" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
-<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="56">
-  <si>
-    <t>01-Crop and animal production, hunting and related service activities</t>
-  </si>
-  <si>
-    <t>INCOME STATEMENT (TRY THOUSANDS)</t>
-  </si>
-  <si>
-    <t>A-GROSS SALES</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Domestic Sales</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Exports</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-Other </t>
-  </si>
-  <si>
-    <t>B-DEDUCTIONS FROM SALES    (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Sales Returns (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Sales Discounts (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-Other Deductions (-)</t>
-  </si>
-  <si>
-    <t>C-NET SALES</t>
-  </si>
-  <si>
-    <t>D-COST OF GOODS SOLD  (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Cost of Finished Goods Sold (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Cost of Merchandise Sold (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-Cost of Services Sold (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    4-Other Cost of Sales (-)</t>
-  </si>
-  <si>
-    <t>GROSS PROFIT OR LOSS</t>
-  </si>
-  <si>
-    <t>E-OPERATING EXPENSES  (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Research and Development Expenses (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Marketing, Selling and Distribution Expenses (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-General Administration Expenses (-)</t>
-  </si>
-  <si>
-    <t>OPERATING PROFIT OR LOSS</t>
-  </si>
-  <si>
-    <t>F-INCOME FROM OTHER OPERATIONS</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Dividends from Participations</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Dividends from Affiliated Enterprises</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-Interest Income</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    4-Commissions</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    5-Provisions that are Cancelled</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    6-Income from Sale of Securities</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    7-Exchange Profits</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    8-Discount Income</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    9-Inflation Adjustment Profits</t>
-  </si>
-  <si>
-    <t xml:space="preserve">   10-Other Income</t>
-  </si>
-  <si>
-    <t>G-EXPENSES FROM OTHER OPERATIONS (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Commissions (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Provision Expenses (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-Loss from Sale of Securities (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    4-Exchange Losses (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    5-Discount Costs (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    6-Inflation Adjustment Losses (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    7-Other Expenditures (-)</t>
-  </si>
-  <si>
-    <t>H-FINANCING EXPENSES  (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Short-term Financing Expenses (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Long-term Financing Expenses (-)</t>
-  </si>
-  <si>
-    <t>PROFIT BEFORE EXTRAORDINARY ITEMS</t>
-  </si>
-  <si>
-    <t>I-EXTRAORDINARY INCOME AND PROFITS</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Profits and Income from Previous Period</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Other Extraordinary Profits and Income</t>
-  </si>
-  <si>
-    <t>J-EXTRA ORDINARY EXPENSES AND LOSSES (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Losses from non-Operating Parts (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Losses from Previous Periods (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-Other Extraordinary Expenses (-)</t>
-  </si>
-  <si>
-    <t>PROFIT OR LOSS BEFORE TAXES</t>
-  </si>
-  <si>
-    <t>K-PROVISIONS FOR INC.TAX &amp; OTH.LIAB.TO GOV.</t>
-  </si>
-  <si>
-    <t>NET PROFIT OR LOSS FOR THE FINANCIAL YEAR</t>
-  </si>
-  <si>
-    <t>Number of Companies</t>
-  </si>
-</sst>
-</file>
-
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="2">
-    <numFmt formatCode="#,##0.0_);\(#,##0.0\)" numFmtId="164"/>
-    <numFmt formatCode="0_)" numFmtId="165"/>
+    <numFmt numFmtId="164" formatCode="#,##0.0_);\(#,##0.0\)"/>
+    <numFmt numFmtId="165" formatCode="0_)"/>
   </numFmts>
   <fonts count="13">
     <font>
@@ -459,97 +286,165 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf numFmtId="37" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="49">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="0" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="0" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf applyAlignment="1" applyProtection="1" borderId="0" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="0" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="centerContinuous"/>
-      <protection hidden="0" locked="0"/>
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf applyAlignment="1" borderId="0" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="3" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="2" fillId="0" fontId="2" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="1" fillId="0" fontId="2" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="3" fillId="0" fontId="2" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="0" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="3" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="2" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="2" fillId="0" borderId="2" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="2" fillId="0" borderId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="2" fillId="0" borderId="3" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="0" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="4" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="1" fillId="0" fontId="5" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="5" fillId="0" fontId="7" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="5" fillId="0" fontId="8" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="2" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="4" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="5" fillId="0" borderId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="7" fillId="0" borderId="5" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="8" fillId="0" borderId="5" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf applyProtection="1" borderId="5" fillId="0" fontId="8" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="8" fillId="0" borderId="5" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf borderId="5" fillId="0" fontId="9" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="6" fillId="0" fontId="7" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="6" fillId="0" fontId="8" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="9" fillId="0" borderId="5" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="7" fillId="0" borderId="6" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="8" fillId="0" borderId="6" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf borderId="6" fillId="0" fontId="8" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="6" fillId="0" fontId="9" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="7" fillId="0" fontId="9" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="7" fillId="0" fontId="9" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="11" fillId="0" fontId="6" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="8" fillId="0" borderId="6" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="9" fillId="0" borderId="6" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="9" fillId="0" borderId="7" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="9" fillId="0" borderId="7" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="11" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf borderId="10" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="12" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="13" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="14" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" applyProtection="1" borderId="0" fillId="0" fontId="3" numFmtId="37" pivotButton="0" quotePrefix="1" xfId="0">
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="10" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="12" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="13" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="14" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="3" fillId="0" borderId="0" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="1" xfId="0">
       <alignment horizontal="left"/>
-      <protection hidden="0" locked="0"/>
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf applyAlignment="1" borderId="8" fillId="0" fontId="4" numFmtId="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="1" fontId="4" fillId="0" borderId="8" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="9" fillId="0" fontId="4" numFmtId="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="1" fontId="4" fillId="0" borderId="9" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="9" fillId="0" fontId="4" numFmtId="165" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="165" fontId="4" fillId="0" borderId="9" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf borderId="11" fillId="0" fontId="6" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="11" fillId="0" fontId="10" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="6" fillId="0" borderId="11" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="164" fontId="10" fillId="0" borderId="11" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf borderId="11" fillId="0" fontId="6" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="2" fontId="4" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="11" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="12" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="11" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="12" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="4" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="9" fillId="0" fontId="4" numFmtId="165" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="11" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="4" fillId="2" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="11" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="12" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="11" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="12" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="4" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="165" fontId="4" fillId="0" borderId="9" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf applyProtection="1" borderId="11" fillId="0" fontId="6" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="11" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf borderId="11" fillId="0" fontId="6" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="11" fillId="0" fontId="10" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="11" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="164" fontId="10" fillId="0" borderId="11" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle builtinId="0" name="Normal" xfId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="008080FF"/>
+      <rgbColor rgb="00802060"/>
+      <rgbColor rgb="00FFFFC0"/>
+      <rgbColor rgb="00A0E0E0"/>
+      <rgbColor rgb="00600080"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000080C0"/>
+      <rgbColor rgb="00C0C0FF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CFFF"/>
+      <rgbColor rgb="0069FFFF"/>
+      <rgbColor rgb="00E0FFE0"/>
+      <rgbColor rgb="00FFFF80"/>
+      <rgbColor rgb="00A6CAF0"/>
+      <rgbColor rgb="00DD9CB3"/>
+      <rgbColor rgb="00B38FEE"/>
+      <rgbColor rgb="00E3E3E3"/>
+      <rgbColor rgb="002A6FF9"/>
+      <rgbColor rgb="003FB8CD"/>
+      <rgbColor rgb="00488436"/>
+      <rgbColor rgb="00958C41"/>
+      <rgbColor rgb="008E5E42"/>
+      <rgbColor rgb="00A0627A"/>
+      <rgbColor rgb="00624FAC"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="001D2FBE"/>
+      <rgbColor rgb="00286676"/>
+      <rgbColor rgb="00004500"/>
+      <rgbColor rgb="00453E01"/>
+      <rgbColor rgb="006A2813"/>
+      <rgbColor rgb="0085396A"/>
+      <rgbColor rgb="004A3285"/>
+      <rgbColor rgb="00424242"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -844,23 +739,22 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M64"/>
+  <dimension ref="A1:N64"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultColWidth="0" defaultRowHeight="13.5" outlineLevelCol="0" zeroHeight="1"/>
+  <sheetFormatPr baseColWidth="8" defaultColWidth="0" defaultRowHeight="13.5" zeroHeight="1"/>
   <cols>
-    <col customWidth="1" max="1" min="1" style="15" width="1.625"/>
-    <col customWidth="1" max="2" min="2" style="15" width="35"/>
-    <col customWidth="1" max="12" min="3" style="15" width="10.25"/>
-    <col customWidth="1" max="13" min="13" style="15" width="10.375"/>
-    <col customWidth="1" max="14" min="14" style="15" width="9"/>
-    <col customWidth="1" hidden="1" max="16384" min="15" style="15"/>
+    <col width="1.625" customWidth="1" style="15" min="1" max="1"/>
+    <col width="35" customWidth="1" style="15" min="2" max="2"/>
+    <col width="13.125" customWidth="1" style="15" min="3" max="14"/>
+    <col width="9" customWidth="1" style="15" min="15" max="15"/>
+    <col hidden="1" style="15" min="16" max="16384"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13">
+    <row r="1">
       <c r="A1" s="12" t="n"/>
       <c r="B1" s="11" t="n"/>
       <c r="C1" s="2" t="n"/>
@@ -873,11 +767,14 @@
       <c r="J1" s="2" t="n"/>
       <c r="K1" s="2" t="n"/>
       <c r="L1" s="2" t="n"/>
-      <c r="M1" s="11" t="n"/>
-    </row>
-    <row r="2" spans="1:13">
-      <c r="A2" s="31" t="s">
-        <v>0</v>
+      <c r="M1" s="2" t="n"/>
+      <c r="N1" s="11" t="n"/>
+    </row>
+    <row r="2">
+      <c r="A2" s="31" t="inlineStr">
+        <is>
+          <t>01-Crop and animal production, hunting and related service activities</t>
+        </is>
       </c>
       <c r="C2" s="12" t="n"/>
       <c r="D2" s="12" t="n"/>
@@ -890,10 +787,13 @@
       <c r="K2" s="12" t="n"/>
       <c r="L2" s="12" t="n"/>
       <c r="M2" s="12" t="n"/>
-    </row>
-    <row r="3" spans="1:13">
-      <c r="A3" s="4" t="s">
-        <v>1</v>
+      <c r="N2" s="12" t="n"/>
+    </row>
+    <row r="3">
+      <c r="A3" s="4" t="inlineStr">
+        <is>
+          <t>INCOME STATEMENT (TRY THOUSANDS)</t>
+        </is>
       </c>
       <c r="C3" s="12" t="n"/>
       <c r="D3" s="12" t="n"/>
@@ -906,8 +806,9 @@
       <c r="K3" s="12" t="n"/>
       <c r="L3" s="12" t="n"/>
       <c r="M3" s="12" t="n"/>
-    </row>
-    <row customHeight="1" ht="14.1" r="4" s="44" spans="1:13">
+      <c r="N3" s="12" t="n"/>
+    </row>
+    <row r="4" ht="14.1" customHeight="1" s="44">
       <c r="A4" s="8" t="n"/>
       <c r="B4" s="13" t="n"/>
       <c r="C4" s="33" t="n">
@@ -940,872 +841,987 @@
       <c r="L4" s="32" t="n">
         <v>2018</v>
       </c>
-      <c r="M4" s="33" t="n">
+      <c r="M4" s="32" t="n">
         <v>2019</v>
       </c>
-    </row>
-    <row r="5" spans="1:13">
+      <c r="N4" s="33" t="n">
+        <v>2020</v>
+      </c>
+    </row>
+    <row r="5">
       <c r="A5" s="14" t="n"/>
-      <c r="B5" s="38" t="s">
-        <v>2</v>
+      <c r="B5" s="38" t="inlineStr">
+        <is>
+          <t>A-GROSS SALES</t>
+        </is>
       </c>
       <c r="C5" s="46" t="n">
-        <v>802210.9130699999</v>
+        <v>736006.68184</v>
       </c>
       <c r="D5" s="47" t="n">
-        <v>1257544.9834</v>
+        <v>1092233.99494</v>
       </c>
       <c r="E5" s="47" t="n">
-        <v>2100143.2732</v>
+        <v>1991226.14106</v>
       </c>
       <c r="F5" s="47" t="n">
-        <v>2778220.90429</v>
+        <v>2621445.448919999</v>
       </c>
       <c r="G5" s="47" t="n">
-        <v>3088233.20259</v>
+        <v>3010065.24901</v>
       </c>
       <c r="H5" s="47" t="n">
-        <v>3987514.93521</v>
+        <v>3703809.91032</v>
       </c>
       <c r="I5" s="47" t="n">
-        <v>5065704.687600001</v>
+        <v>4854354.16628</v>
       </c>
       <c r="J5" s="47" t="n">
-        <v>6030613.304949999</v>
+        <v>5890642.885829999</v>
       </c>
       <c r="K5" s="47" t="n">
-        <v>9388253.71301</v>
+        <v>7756009.100729999</v>
       </c>
       <c r="L5" s="47" t="n">
-        <v>9231482.923119999</v>
+        <v>8904699.0603</v>
       </c>
       <c r="M5" s="47" t="n">
-        <v>10841643.03513</v>
-      </c>
-    </row>
-    <row r="6" spans="1:13">
+        <v>10553741.73213</v>
+      </c>
+      <c r="N5" s="47" t="n">
+        <v>13808517.401</v>
+      </c>
+    </row>
+    <row r="6">
       <c r="A6" s="9" t="n"/>
-      <c r="B6" s="3" t="s">
-        <v>3</v>
+      <c r="B6" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Domestic Sales</t>
+        </is>
       </c>
       <c r="C6" s="48" t="n">
-        <v>727451.4536299999</v>
+        <v>665203.6660900001</v>
       </c>
       <c r="D6" s="48" t="n">
-        <v>1147111.77445</v>
+        <v>1004099.57369</v>
       </c>
       <c r="E6" s="48" t="n">
-        <v>1910376.23253</v>
+        <v>1825771.4493</v>
       </c>
       <c r="F6" s="48" t="n">
-        <v>2569822.89075</v>
+        <v>2417720.72702</v>
       </c>
       <c r="G6" s="48" t="n">
-        <v>2860186.73892</v>
+        <v>2709144.086940001</v>
       </c>
       <c r="H6" s="48" t="n">
-        <v>3719720.37934</v>
+        <v>3451419.95405</v>
       </c>
       <c r="I6" s="48" t="n">
-        <v>4774958.01884</v>
+        <v>4573500.966860001</v>
       </c>
       <c r="J6" s="48" t="n">
-        <v>5682936.36128</v>
+        <v>5570313.723919999</v>
       </c>
       <c r="K6" s="48" t="n">
-        <v>8736287.167330001</v>
+        <v>7133255.115139999</v>
       </c>
       <c r="L6" s="48" t="n">
-        <v>8132755.63884</v>
+        <v>7791962.104739999</v>
       </c>
       <c r="M6" s="48" t="n">
-        <v>9713707.263739999</v>
-      </c>
-    </row>
-    <row r="7" spans="1:13">
+        <v>9426114.423040001</v>
+      </c>
+      <c r="N6" s="48" t="n">
+        <v>12583357.518</v>
+      </c>
+    </row>
+    <row r="7">
       <c r="A7" s="9" t="n"/>
-      <c r="B7" s="3" t="s">
-        <v>4</v>
+      <c r="B7" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Exports</t>
+        </is>
       </c>
       <c r="C7" s="48" t="n">
-        <v>55664.40954000001</v>
+        <v>54093.56140999999</v>
       </c>
       <c r="D7" s="48" t="n">
-        <v>85816.90552</v>
+        <v>73211.99165</v>
       </c>
       <c r="E7" s="48" t="n">
-        <v>153453.84749</v>
+        <v>143399.08096</v>
       </c>
       <c r="F7" s="48" t="n">
-        <v>163294.47404</v>
+        <v>165480.94055</v>
       </c>
       <c r="G7" s="48" t="n">
-        <v>178497.85406</v>
+        <v>250636.5272</v>
       </c>
       <c r="H7" s="48" t="n">
-        <v>198184.91716</v>
+        <v>198783.22282</v>
       </c>
       <c r="I7" s="48" t="n">
-        <v>159377.53941</v>
+        <v>154089.22799</v>
       </c>
       <c r="J7" s="48" t="n">
-        <v>238324.22969</v>
+        <v>225312.6472</v>
       </c>
       <c r="K7" s="48" t="n">
-        <v>512689.05911</v>
+        <v>488844.01068</v>
       </c>
       <c r="L7" s="48" t="n">
-        <v>954963.4367000001</v>
+        <v>983844.43624</v>
       </c>
       <c r="M7" s="48" t="n">
-        <v>928301.55877</v>
-      </c>
-    </row>
-    <row r="8" spans="1:13">
+        <v>934839.8829300001</v>
+      </c>
+      <c r="N7" s="48" t="n">
+        <v>933685.517</v>
+      </c>
+    </row>
+    <row r="8">
       <c r="A8" s="9" t="n"/>
-      <c r="B8" s="3" t="s">
-        <v>5</v>
+      <c r="B8" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-Other </t>
+        </is>
       </c>
       <c r="C8" s="48" t="n">
-        <v>19095.0499</v>
+        <v>16709.45434</v>
       </c>
       <c r="D8" s="48" t="n">
-        <v>24616.30343</v>
+        <v>14922.4296</v>
       </c>
       <c r="E8" s="48" t="n">
-        <v>36313.19318</v>
+        <v>22055.6108</v>
       </c>
       <c r="F8" s="48" t="n">
-        <v>45103.53950000001</v>
+        <v>38243.78135</v>
       </c>
       <c r="G8" s="48" t="n">
-        <v>49548.60961</v>
+        <v>50284.63486999999</v>
       </c>
       <c r="H8" s="48" t="n">
-        <v>69609.63871000001</v>
+        <v>53606.73345</v>
       </c>
       <c r="I8" s="48" t="n">
-        <v>131369.12935</v>
+        <v>126763.97143</v>
       </c>
       <c r="J8" s="48" t="n">
-        <v>109352.71398</v>
+        <v>95016.51470999999</v>
       </c>
       <c r="K8" s="48" t="n">
-        <v>139277.48657</v>
+        <v>133909.97491</v>
       </c>
       <c r="L8" s="48" t="n">
-        <v>143763.84758</v>
+        <v>128892.51932</v>
       </c>
       <c r="M8" s="48" t="n">
-        <v>199634.21262</v>
-      </c>
-    </row>
-    <row r="9" spans="1:13">
+        <v>192787.42616</v>
+      </c>
+      <c r="N8" s="48" t="n">
+        <v>291474.366</v>
+      </c>
+    </row>
+    <row r="9">
       <c r="A9" s="14" t="n"/>
-      <c r="B9" s="38" t="s">
-        <v>6</v>
+      <c r="B9" s="38" t="inlineStr">
+        <is>
+          <t>B-DEDUCTIONS FROM SALES    (-)</t>
+        </is>
       </c>
       <c r="C9" s="46" t="n">
-        <v>14821.91933</v>
+        <v>14228.36333</v>
       </c>
       <c r="D9" s="47" t="n">
-        <v>17988.05571</v>
+        <v>16633.62524</v>
       </c>
       <c r="E9" s="47" t="n">
-        <v>14783.81281</v>
+        <v>12625.22853</v>
       </c>
       <c r="F9" s="47" t="n">
-        <v>26951.05359</v>
+        <v>20983.99312</v>
       </c>
       <c r="G9" s="47" t="n">
-        <v>27081.35143</v>
+        <v>29439.17395</v>
       </c>
       <c r="H9" s="47" t="n">
-        <v>29984.82683</v>
+        <v>35818.52638</v>
       </c>
       <c r="I9" s="47" t="n">
-        <v>34500.72795</v>
+        <v>36716.28976000001</v>
       </c>
       <c r="J9" s="47" t="n">
-        <v>59262.2463</v>
+        <v>58736.28322</v>
       </c>
       <c r="K9" s="47" t="n">
-        <v>1254901.87477</v>
+        <v>56483.71216</v>
       </c>
       <c r="L9" s="47" t="n">
-        <v>129156.94847</v>
+        <v>150614.18138</v>
       </c>
       <c r="M9" s="47" t="n">
-        <v>121494.48454</v>
-      </c>
-    </row>
-    <row r="10" spans="1:13">
+        <v>124413.74841</v>
+      </c>
+      <c r="N9" s="47" t="n">
+        <v>165630.517</v>
+      </c>
+    </row>
+    <row r="10">
       <c r="A10" s="9" t="n"/>
-      <c r="B10" s="3" t="s">
-        <v>7</v>
+      <c r="B10" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Sales Returns (-)</t>
+        </is>
       </c>
       <c r="C10" s="48" t="n">
-        <v>4113.48029</v>
+        <v>3864.67255</v>
       </c>
       <c r="D10" s="48" t="n">
-        <v>5989.00563</v>
+        <v>5243.38674</v>
       </c>
       <c r="E10" s="48" t="n">
-        <v>6425.87872</v>
+        <v>5015.8299</v>
       </c>
       <c r="F10" s="48" t="n">
-        <v>16867.11714</v>
+        <v>10858.3896</v>
       </c>
       <c r="G10" s="48" t="n">
-        <v>10447.3564</v>
+        <v>11461.78504</v>
       </c>
       <c r="H10" s="48" t="n">
-        <v>16025.12684</v>
+        <v>19248.17371</v>
       </c>
       <c r="I10" s="48" t="n">
-        <v>18536.03817</v>
+        <v>19800.84061</v>
       </c>
       <c r="J10" s="48" t="n">
-        <v>32119.82084</v>
+        <v>31266.31901000001</v>
       </c>
       <c r="K10" s="48" t="n">
-        <v>1227064.1543</v>
+        <v>32818.74057</v>
       </c>
       <c r="L10" s="48" t="n">
-        <v>56279.07795000001</v>
+        <v>59660.30627</v>
       </c>
       <c r="M10" s="48" t="n">
-        <v>61235.79148</v>
-      </c>
-    </row>
-    <row r="11" spans="1:13">
+        <v>64036.38478</v>
+      </c>
+      <c r="N10" s="48" t="n">
+        <v>105725.644</v>
+      </c>
+    </row>
+    <row r="11">
       <c r="A11" s="9" t="n"/>
-      <c r="B11" s="3" t="s">
-        <v>8</v>
+      <c r="B11" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Sales Discounts (-)</t>
+        </is>
       </c>
       <c r="C11" s="48" t="n">
-        <v>8046.55275</v>
+        <v>7889.56747</v>
       </c>
       <c r="D11" s="48" t="n">
-        <v>9400.30148</v>
+        <v>8985.19838</v>
       </c>
       <c r="E11" s="48" t="n">
-        <v>6462.1814</v>
+        <v>5605.6849</v>
       </c>
       <c r="F11" s="48" t="n">
-        <v>6637.32441</v>
+        <v>6776.17203</v>
       </c>
       <c r="G11" s="48" t="n">
-        <v>12090.52265</v>
+        <v>13125.48292</v>
       </c>
       <c r="H11" s="48" t="n">
-        <v>7083.01163</v>
+        <v>9068.935289999999</v>
       </c>
       <c r="I11" s="48" t="n">
-        <v>11814.01484</v>
+        <v>13382.63184</v>
       </c>
       <c r="J11" s="48" t="n">
-        <v>18290.02659</v>
+        <v>20384.63287</v>
       </c>
       <c r="K11" s="48" t="n">
-        <v>18063.42248</v>
+        <v>17808.82991</v>
       </c>
       <c r="L11" s="48" t="n">
-        <v>51583.73657</v>
+        <v>69573.57348000001</v>
       </c>
       <c r="M11" s="48" t="n">
-        <v>45483.52429</v>
-      </c>
-    </row>
-    <row r="12" spans="1:13">
+        <v>45562.11736</v>
+      </c>
+      <c r="N11" s="48" t="n">
+        <v>35360.455</v>
+      </c>
+    </row>
+    <row r="12">
       <c r="A12" s="9" t="n"/>
-      <c r="B12" s="3" t="s">
-        <v>9</v>
+      <c r="B12" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-Other Deductions (-)</t>
+        </is>
       </c>
       <c r="C12" s="48" t="n">
-        <v>2661.88629</v>
+        <v>2474.12331</v>
       </c>
       <c r="D12" s="48" t="n">
-        <v>2598.748599999999</v>
+        <v>2405.04012</v>
       </c>
       <c r="E12" s="48" t="n">
-        <v>1895.75269</v>
+        <v>2003.71373</v>
       </c>
       <c r="F12" s="48" t="n">
-        <v>3446.61204</v>
+        <v>3349.43149</v>
       </c>
       <c r="G12" s="48" t="n">
-        <v>4543.47238</v>
+        <v>4851.905989999999</v>
       </c>
       <c r="H12" s="48" t="n">
-        <v>6876.68836</v>
+        <v>7501.417379999999</v>
       </c>
       <c r="I12" s="48" t="n">
-        <v>4150.674940000001</v>
+        <v>3532.81731</v>
       </c>
       <c r="J12" s="48" t="n">
-        <v>8852.398870000001</v>
+        <v>7085.33134</v>
       </c>
       <c r="K12" s="48" t="n">
-        <v>9774.297990000001</v>
+        <v>5856.14168</v>
       </c>
       <c r="L12" s="48" t="n">
-        <v>21294.13395</v>
+        <v>21380.30163</v>
       </c>
       <c r="M12" s="48" t="n">
-        <v>14775.16877</v>
-      </c>
-    </row>
-    <row r="13" spans="1:13">
+        <v>14815.24627</v>
+      </c>
+      <c r="N12" s="48" t="n">
+        <v>24544.418</v>
+      </c>
+    </row>
+    <row r="13">
       <c r="A13" s="14" t="n"/>
-      <c r="B13" s="38" t="s">
-        <v>10</v>
+      <c r="B13" s="38" t="inlineStr">
+        <is>
+          <t>C-NET SALES</t>
+        </is>
       </c>
       <c r="C13" s="46" t="n">
-        <v>787388.9937400001</v>
+        <v>721778.31851</v>
       </c>
       <c r="D13" s="47" t="n">
-        <v>1239556.92769</v>
+        <v>1075600.3697</v>
       </c>
       <c r="E13" s="47" t="n">
-        <v>2085359.46039</v>
+        <v>1978600.91253</v>
       </c>
       <c r="F13" s="47" t="n">
-        <v>2751269.8507</v>
+        <v>2600461.4558</v>
       </c>
       <c r="G13" s="47" t="n">
-        <v>3061151.85116</v>
+        <v>2980626.075060001</v>
       </c>
       <c r="H13" s="47" t="n">
-        <v>3957530.10838</v>
+        <v>3667991.38394</v>
       </c>
       <c r="I13" s="47" t="n">
-        <v>5031203.95965</v>
+        <v>4817637.87652</v>
       </c>
       <c r="J13" s="47" t="n">
-        <v>5971351.058650001</v>
+        <v>5831906.602609999</v>
       </c>
       <c r="K13" s="47" t="n">
-        <v>8133351.838239999</v>
+        <v>7699525.38857</v>
       </c>
       <c r="L13" s="47" t="n">
-        <v>9102325.974650001</v>
+        <v>8754084.87892</v>
       </c>
       <c r="M13" s="47" t="n">
-        <v>10720148.55059</v>
-      </c>
-    </row>
-    <row r="14" spans="1:13">
+        <v>10429327.98372</v>
+      </c>
+      <c r="N13" s="47" t="n">
+        <v>13642886.884</v>
+      </c>
+    </row>
+    <row r="14">
       <c r="A14" s="14" t="n"/>
-      <c r="B14" s="38" t="s">
-        <v>11</v>
+      <c r="B14" s="38" t="inlineStr">
+        <is>
+          <t>D-COST OF GOODS SOLD  (-)</t>
+        </is>
       </c>
       <c r="C14" s="46" t="n">
-        <v>677815.93778</v>
+        <v>605063.3487699999</v>
       </c>
       <c r="D14" s="47" t="n">
-        <v>1099703.19935</v>
+        <v>956730.1787099999</v>
       </c>
       <c r="E14" s="47" t="n">
-        <v>1899845.35302</v>
+        <v>1798647.41725</v>
       </c>
       <c r="F14" s="47" t="n">
-        <v>2514277.28777</v>
+        <v>2366243.00842</v>
       </c>
       <c r="G14" s="47" t="n">
-        <v>2785237.23678</v>
+        <v>2678325.8484</v>
       </c>
       <c r="H14" s="47" t="n">
-        <v>3531940.342030001</v>
+        <v>3235071.29857</v>
       </c>
       <c r="I14" s="47" t="n">
-        <v>4478905.56246</v>
+        <v>4257966.35506</v>
       </c>
       <c r="J14" s="47" t="n">
-        <v>5400625.9134</v>
+        <v>5260011.510609999</v>
       </c>
       <c r="K14" s="47" t="n">
-        <v>7289627.141120001</v>
+        <v>6890662.55534</v>
       </c>
       <c r="L14" s="47" t="n">
-        <v>8035630.772630001</v>
+        <v>7617511.16335</v>
       </c>
       <c r="M14" s="47" t="n">
-        <v>9668340.66505</v>
-      </c>
-    </row>
-    <row r="15" spans="1:13">
+        <v>9311796.645629998</v>
+      </c>
+      <c r="N14" s="47" t="n">
+        <v>12262381.636</v>
+      </c>
+    </row>
+    <row r="15">
       <c r="A15" s="9" t="n"/>
-      <c r="B15" s="3" t="s">
-        <v>12</v>
+      <c r="B15" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Cost of Finished Goods Sold (-)</t>
+        </is>
       </c>
       <c r="C15" s="48" t="n">
-        <v>439457.7768900001</v>
+        <v>388727.9933</v>
       </c>
       <c r="D15" s="48" t="n">
-        <v>670068.71089</v>
+        <v>566760.6467299999</v>
       </c>
       <c r="E15" s="48" t="n">
-        <v>1191748.83308</v>
+        <v>1117618.69073</v>
       </c>
       <c r="F15" s="48" t="n">
-        <v>1531103.90365</v>
+        <v>1435878.90241</v>
       </c>
       <c r="G15" s="48" t="n">
-        <v>1697353.4468</v>
+        <v>1614970.26114</v>
       </c>
       <c r="H15" s="48" t="n">
-        <v>2291426.13327</v>
+        <v>2048899.35008</v>
       </c>
       <c r="I15" s="48" t="n">
-        <v>2990420.51014</v>
+        <v>2827139.30034</v>
       </c>
       <c r="J15" s="48" t="n">
-        <v>3486255.41897</v>
+        <v>3414260.89303</v>
       </c>
       <c r="K15" s="48" t="n">
-        <v>4516143.191860001</v>
+        <v>4229952.405379999</v>
       </c>
       <c r="L15" s="48" t="n">
-        <v>4945237.085150001</v>
+        <v>4665136.869100001</v>
       </c>
       <c r="M15" s="48" t="n">
-        <v>5937524.02771</v>
-      </c>
-    </row>
-    <row r="16" spans="1:13">
+        <v>5690918.075959999</v>
+      </c>
+      <c r="N15" s="48" t="n">
+        <v>7503424.945</v>
+      </c>
+    </row>
+    <row r="16">
       <c r="A16" s="9" t="n"/>
-      <c r="B16" s="3" t="s">
-        <v>13</v>
+      <c r="B16" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Cost of Merchandise Sold (-)</t>
+        </is>
       </c>
       <c r="C16" s="48" t="n">
-        <v>199371.74337</v>
+        <v>185178.29799</v>
       </c>
       <c r="D16" s="48" t="n">
-        <v>366172.03027</v>
+        <v>343071.61838</v>
       </c>
       <c r="E16" s="48" t="n">
-        <v>610784.41687</v>
+        <v>596715.4037</v>
       </c>
       <c r="F16" s="48" t="n">
-        <v>882143.3933199999</v>
+        <v>835850.44383</v>
       </c>
       <c r="G16" s="48" t="n">
-        <v>980628.42122</v>
+        <v>967928.6874100001</v>
       </c>
       <c r="H16" s="48" t="n">
-        <v>1102590.28739</v>
+        <v>1056393.6477</v>
       </c>
       <c r="I16" s="48" t="n">
-        <v>1312141.52143</v>
+        <v>1285775.5178</v>
       </c>
       <c r="J16" s="48" t="n">
-        <v>1720101.88015</v>
+        <v>1671777.27943</v>
       </c>
       <c r="K16" s="48" t="n">
-        <v>2585854.76471</v>
+        <v>2481189.67755</v>
       </c>
       <c r="L16" s="48" t="n">
-        <v>2919000.9505</v>
+        <v>2770476.56209</v>
       </c>
       <c r="M16" s="48" t="n">
-        <v>3503931.63802</v>
-      </c>
-    </row>
-    <row r="17" spans="1:13">
+        <v>3386839.06998</v>
+      </c>
+      <c r="N16" s="48" t="n">
+        <v>4403265.916</v>
+      </c>
+    </row>
+    <row r="17">
       <c r="A17" s="9" t="n"/>
-      <c r="B17" s="3" t="s">
-        <v>14</v>
+      <c r="B17" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-Cost of Services Sold (-)</t>
+        </is>
       </c>
       <c r="C17" s="48" t="n">
-        <v>33385.78196</v>
+        <v>29256.18531</v>
       </c>
       <c r="D17" s="48" t="n">
-        <v>56862.03234</v>
+        <v>45818.2133</v>
       </c>
       <c r="E17" s="48" t="n">
-        <v>90591.54062999999</v>
+        <v>82451.40043000001</v>
       </c>
       <c r="F17" s="48" t="n">
-        <v>74888.17925999999</v>
+        <v>78297.54571999999</v>
       </c>
       <c r="G17" s="48" t="n">
-        <v>83089.33545999999</v>
+        <v>79245.68616999999</v>
       </c>
       <c r="H17" s="48" t="n">
-        <v>102157.26017</v>
+        <v>91669.52468</v>
       </c>
       <c r="I17" s="48" t="n">
-        <v>122991.76287</v>
+        <v>109146.06732</v>
       </c>
       <c r="J17" s="48" t="n">
-        <v>154437.43526</v>
+        <v>132898.3922</v>
       </c>
       <c r="K17" s="48" t="n">
-        <v>122461.98623</v>
+        <v>114158.25442</v>
       </c>
       <c r="L17" s="48" t="n">
-        <v>131651.18454</v>
+        <v>139011.89348</v>
       </c>
       <c r="M17" s="48" t="n">
-        <v>155063.68763</v>
-      </c>
-    </row>
-    <row r="18" spans="1:13">
+        <v>146816.36113</v>
+      </c>
+      <c r="N17" s="48" t="n">
+        <v>245894.117</v>
+      </c>
+    </row>
+    <row r="18">
       <c r="A18" s="9" t="n"/>
-      <c r="B18" s="3" t="s">
-        <v>15</v>
+      <c r="B18" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    4-Other Cost of Sales (-)</t>
+        </is>
       </c>
       <c r="C18" s="48" t="n">
-        <v>5600.63556</v>
+        <v>1900.87217</v>
       </c>
       <c r="D18" s="48" t="n">
-        <v>6600.42585</v>
+        <v>1079.7003</v>
       </c>
       <c r="E18" s="48" t="n">
-        <v>6720.562440000001</v>
+        <v>1861.92239</v>
       </c>
       <c r="F18" s="48" t="n">
-        <v>26141.81154</v>
+        <v>16216.11646</v>
       </c>
       <c r="G18" s="48" t="n">
-        <v>24166.0333</v>
+        <v>16181.21368</v>
       </c>
       <c r="H18" s="48" t="n">
-        <v>35766.6612</v>
+        <v>38108.77611</v>
       </c>
       <c r="I18" s="48" t="n">
-        <v>53351.76802</v>
+        <v>35905.4696</v>
       </c>
       <c r="J18" s="48" t="n">
-        <v>39831.17902</v>
+        <v>41074.94595</v>
       </c>
       <c r="K18" s="48" t="n">
-        <v>65167.19832</v>
+        <v>65362.21799</v>
       </c>
       <c r="L18" s="48" t="n">
-        <v>39741.55244000001</v>
+        <v>42885.83867999999</v>
       </c>
       <c r="M18" s="48" t="n">
-        <v>71821.31169</v>
-      </c>
-    </row>
-    <row r="19" spans="1:13">
+        <v>87223.13855999999</v>
+      </c>
+      <c r="N18" s="48" t="n">
+        <v>109796.658</v>
+      </c>
+    </row>
+    <row r="19">
       <c r="A19" s="14" t="n"/>
-      <c r="B19" s="38" t="s">
-        <v>16</v>
+      <c r="B19" s="38" t="inlineStr">
+        <is>
+          <t>GROSS PROFIT OR LOSS</t>
+        </is>
       </c>
       <c r="C19" s="46" t="n">
-        <v>109573.05596</v>
+        <v>116714.96974</v>
       </c>
       <c r="D19" s="47" t="n">
-        <v>139853.72834</v>
+        <v>118870.19099</v>
       </c>
       <c r="E19" s="47" t="n">
-        <v>185514.10737</v>
+        <v>179953.49528</v>
       </c>
       <c r="F19" s="47" t="n">
-        <v>236992.56293</v>
+        <v>234218.44738</v>
       </c>
       <c r="G19" s="47" t="n">
-        <v>275914.61438</v>
+        <v>302300.22666</v>
       </c>
       <c r="H19" s="47" t="n">
-        <v>425589.76635</v>
+        <v>432920.0853699999</v>
       </c>
       <c r="I19" s="47" t="n">
-        <v>552298.39719</v>
+        <v>559671.52146</v>
       </c>
       <c r="J19" s="47" t="n">
-        <v>570725.1452499999</v>
+        <v>571895.0919999999</v>
       </c>
       <c r="K19" s="47" t="n">
-        <v>843724.6971200001</v>
+        <v>808862.83323</v>
       </c>
       <c r="L19" s="47" t="n">
-        <v>1066695.20202</v>
+        <v>1136573.71557</v>
       </c>
       <c r="M19" s="47" t="n">
-        <v>1051807.88554</v>
-      </c>
-    </row>
-    <row r="20" spans="1:13">
+        <v>1117531.33809</v>
+      </c>
+      <c r="N19" s="47" t="n">
+        <v>1380505.248</v>
+      </c>
+    </row>
+    <row r="20">
       <c r="A20" s="14" t="n"/>
-      <c r="B20" s="38" t="s">
-        <v>17</v>
+      <c r="B20" s="38" t="inlineStr">
+        <is>
+          <t>E-OPERATING EXPENSES  (-)</t>
+        </is>
       </c>
       <c r="C20" s="46" t="n">
-        <v>84728.29936</v>
+        <v>72591.61816000001</v>
       </c>
       <c r="D20" s="47" t="n">
-        <v>108416.43196</v>
+        <v>77859.03662</v>
       </c>
       <c r="E20" s="47" t="n">
-        <v>152376.24156</v>
+        <v>111497.12023</v>
       </c>
       <c r="F20" s="47" t="n">
-        <v>196376.27914</v>
+        <v>152360.23463</v>
       </c>
       <c r="G20" s="47" t="n">
-        <v>216630.47912</v>
+        <v>184833.02578</v>
       </c>
       <c r="H20" s="47" t="n">
-        <v>280236.52351</v>
+        <v>236602.98758</v>
       </c>
       <c r="I20" s="47" t="n">
-        <v>342399.66617</v>
+        <v>300885.65391</v>
       </c>
       <c r="J20" s="47" t="n">
-        <v>403728.19003</v>
+        <v>347424.0729500001</v>
       </c>
       <c r="K20" s="47" t="n">
-        <v>521911.84259</v>
+        <v>469266.2038</v>
       </c>
       <c r="L20" s="47" t="n">
-        <v>591571.53741</v>
+        <v>579718.26724</v>
       </c>
       <c r="M20" s="47" t="n">
-        <v>708863.6762700001</v>
-      </c>
-    </row>
-    <row r="21" spans="1:13">
+        <v>647305.5384499999</v>
+      </c>
+      <c r="N20" s="47" t="n">
+        <v>758774.887</v>
+      </c>
+    </row>
+    <row r="21">
       <c r="A21" s="9" t="n"/>
-      <c r="B21" s="3" t="s">
-        <v>18</v>
+      <c r="B21" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Research and Development Expenses (-)</t>
+        </is>
       </c>
       <c r="C21" s="48" t="n">
-        <v>1587.13676</v>
+        <v>384.87312</v>
       </c>
       <c r="D21" s="48" t="n">
-        <v>1283.37343</v>
+        <v>1293.4634</v>
       </c>
       <c r="E21" s="48" t="n">
-        <v>1197.16541</v>
+        <v>1061.17324</v>
       </c>
       <c r="F21" s="48" t="n">
-        <v>1323.00316</v>
+        <v>1574.97916</v>
       </c>
       <c r="G21" s="48" t="n">
-        <v>337.50769</v>
+        <v>555.03354</v>
       </c>
       <c r="H21" s="48" t="n">
-        <v>189.79409</v>
+        <v>1563.73248</v>
       </c>
       <c r="I21" s="48" t="n">
-        <v>5211.99864</v>
+        <v>5389.42746</v>
       </c>
       <c r="J21" s="48" t="n">
-        <v>1042.1923</v>
+        <v>5658.67925</v>
       </c>
       <c r="K21" s="48" t="n">
-        <v>9175.94239</v>
+        <v>12819.30543</v>
       </c>
       <c r="L21" s="48" t="n">
-        <v>19860.48395</v>
+        <v>21496.45049</v>
       </c>
       <c r="M21" s="48" t="n">
-        <v>24440.67336</v>
-      </c>
-    </row>
-    <row r="22" spans="1:13">
+        <v>23658.99502</v>
+      </c>
+      <c r="N21" s="48" t="n">
+        <v>25961.079</v>
+      </c>
+    </row>
+    <row r="22">
       <c r="A22" s="9" t="n"/>
-      <c r="B22" s="41" t="s">
-        <v>19</v>
+      <c r="B22" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Marketing, Selling and Distribution Expenses (-)</t>
+        </is>
       </c>
       <c r="C22" s="48" t="n">
-        <v>35859.64482</v>
+        <v>36684.08308</v>
       </c>
       <c r="D22" s="48" t="n">
-        <v>36697.43436</v>
+        <v>32350.39958</v>
       </c>
       <c r="E22" s="48" t="n">
-        <v>53504.95208</v>
+        <v>46870.93197</v>
       </c>
       <c r="F22" s="48" t="n">
-        <v>66814.08288</v>
+        <v>61942.72086</v>
       </c>
       <c r="G22" s="48" t="n">
-        <v>81614.01652</v>
+        <v>83060.47712000001</v>
       </c>
       <c r="H22" s="48" t="n">
-        <v>96794.64228000001</v>
+        <v>94488.6421</v>
       </c>
       <c r="I22" s="48" t="n">
-        <v>102896.4084</v>
+        <v>102889.71184</v>
       </c>
       <c r="J22" s="48" t="n">
-        <v>126266.41216</v>
+        <v>125459.51587</v>
       </c>
       <c r="K22" s="48" t="n">
-        <v>171118.45124</v>
+        <v>172716.707</v>
       </c>
       <c r="L22" s="48" t="n">
-        <v>266694.16977</v>
+        <v>282409.3133</v>
       </c>
       <c r="M22" s="48" t="n">
-        <v>307844.4437</v>
-      </c>
-    </row>
-    <row r="23" spans="1:13">
+        <v>296186.8017899999</v>
+      </c>
+      <c r="N22" s="48" t="n">
+        <v>355584.543</v>
+      </c>
+    </row>
+    <row r="23">
       <c r="A23" s="9" t="n"/>
-      <c r="B23" s="41" t="s">
-        <v>20</v>
+      <c r="B23" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-General Administration Expenses (-)</t>
+        </is>
       </c>
       <c r="C23" s="48" t="n">
-        <v>47281.51777999999</v>
+        <v>35522.66196</v>
       </c>
       <c r="D23" s="48" t="n">
-        <v>70435.62416999998</v>
+        <v>44215.17364</v>
       </c>
       <c r="E23" s="48" t="n">
-        <v>97674.12406999999</v>
+        <v>63565.01502000001</v>
       </c>
       <c r="F23" s="48" t="n">
-        <v>128239.1931</v>
+        <v>88842.53461000002</v>
       </c>
       <c r="G23" s="48" t="n">
-        <v>134678.95491</v>
+        <v>101217.51512</v>
       </c>
       <c r="H23" s="48" t="n">
-        <v>183252.08714</v>
+        <v>140550.613</v>
       </c>
       <c r="I23" s="48" t="n">
-        <v>234291.25913</v>
+        <v>192606.51461</v>
       </c>
       <c r="J23" s="48" t="n">
-        <v>276419.58557</v>
+        <v>216305.87783</v>
       </c>
       <c r="K23" s="48" t="n">
-        <v>341617.44896</v>
+        <v>283730.19137</v>
       </c>
       <c r="L23" s="48" t="n">
-        <v>305016.88369</v>
+        <v>275812.5034500001</v>
       </c>
       <c r="M23" s="48" t="n">
-        <v>376578.55921</v>
-      </c>
-    </row>
-    <row r="24" spans="1:13">
+        <v>327459.74164</v>
+      </c>
+      <c r="N23" s="48" t="n">
+        <v>377229.265</v>
+      </c>
+    </row>
+    <row r="24">
       <c r="A24" s="14" t="n"/>
-      <c r="B24" s="42" t="s">
-        <v>21</v>
+      <c r="B24" s="42" t="inlineStr">
+        <is>
+          <t>OPERATING PROFIT OR LOSS</t>
+        </is>
       </c>
       <c r="C24" s="46" t="n">
-        <v>24844.7566</v>
+        <v>44123.35158</v>
       </c>
       <c r="D24" s="47" t="n">
-        <v>31437.29638</v>
+        <v>41011.15437</v>
       </c>
       <c r="E24" s="47" t="n">
-        <v>33137.86581</v>
+        <v>68456.37505</v>
       </c>
       <c r="F24" s="47" t="n">
-        <v>40616.28379000001</v>
+        <v>81858.21275000001</v>
       </c>
       <c r="G24" s="47" t="n">
-        <v>59284.13526</v>
+        <v>117467.20088</v>
       </c>
       <c r="H24" s="47" t="n">
-        <v>145353.24284</v>
+        <v>196317.09779</v>
       </c>
       <c r="I24" s="47" t="n">
-        <v>209898.73102</v>
+        <v>258785.86755</v>
       </c>
       <c r="J24" s="47" t="n">
-        <v>166996.95522</v>
+        <v>224471.01905</v>
       </c>
       <c r="K24" s="47" t="n">
-        <v>321812.85453</v>
+        <v>339596.62943</v>
       </c>
       <c r="L24" s="47" t="n">
-        <v>475123.66461</v>
+        <v>556855.44833</v>
       </c>
       <c r="M24" s="47" t="n">
-        <v>342944.20927</v>
-      </c>
-    </row>
-    <row r="25" spans="1:13">
+        <v>470225.79964</v>
+      </c>
+      <c r="N24" s="47" t="n">
+        <v>621730.361</v>
+      </c>
+    </row>
+    <row r="25">
       <c r="A25" s="14" t="n"/>
-      <c r="B25" s="42" t="s">
-        <v>22</v>
+      <c r="B25" s="42" t="inlineStr">
+        <is>
+          <t>F-INCOME FROM OTHER OPERATIONS</t>
+        </is>
       </c>
       <c r="C25" s="46" t="n">
-        <v>23222.32553000001</v>
+        <v>19950.48752</v>
       </c>
       <c r="D25" s="47" t="n">
-        <v>34640.11714999999</v>
+        <v>39738.63358</v>
       </c>
       <c r="E25" s="47" t="n">
-        <v>46189.80748999999</v>
+        <v>49741.9508</v>
       </c>
       <c r="F25" s="47" t="n">
-        <v>49280.72349</v>
+        <v>66716.42267</v>
       </c>
       <c r="G25" s="47" t="n">
-        <v>66037.73918</v>
+        <v>86063.79811999999</v>
       </c>
       <c r="H25" s="47" t="n">
-        <v>80400.24999000001</v>
+        <v>102776.9092</v>
       </c>
       <c r="I25" s="47" t="n">
-        <v>102658.50153</v>
+        <v>156017.99468</v>
       </c>
       <c r="J25" s="47" t="n">
-        <v>106199.0264</v>
+        <v>184493.5535</v>
       </c>
       <c r="K25" s="47" t="n">
-        <v>139651.78848</v>
+        <v>135158.62221</v>
       </c>
       <c r="L25" s="47" t="n">
-        <v>430737.57156</v>
+        <v>403017.1896</v>
       </c>
       <c r="M25" s="47" t="n">
-        <v>303332.19695</v>
-      </c>
-    </row>
-    <row r="26" spans="1:13">
+        <v>317856.38181</v>
+      </c>
+      <c r="N25" s="47" t="n">
+        <v>425288.358</v>
+      </c>
+    </row>
+    <row r="26">
       <c r="A26" s="9" t="n"/>
-      <c r="B26" s="41" t="s">
-        <v>23</v>
+      <c r="B26" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Dividends from Participations</t>
+        </is>
       </c>
       <c r="C26" s="48" t="n">
-        <v>1967.23286</v>
+        <v>11.79471</v>
       </c>
       <c r="D26" s="48" t="n">
-        <v>3026.57046</v>
+        <v>684.38221</v>
       </c>
       <c r="E26" s="48" t="n">
-        <v>2703.47837</v>
+        <v>809.18849</v>
       </c>
       <c r="F26" s="48" t="n">
-        <v>4993.76123</v>
+        <v>4893.14284</v>
       </c>
       <c r="G26" s="48" t="n">
-        <v>4749.646060000001</v>
+        <v>654.60904</v>
       </c>
       <c r="H26" s="48" t="n">
-        <v>1418.44481</v>
+        <v>560.9941699999999</v>
       </c>
       <c r="I26" s="48" t="n">
-        <v>1754.31001</v>
+        <v>32097.74231</v>
       </c>
       <c r="J26" s="48" t="n">
-        <v>3726.73912</v>
+        <v>1184.96975</v>
       </c>
       <c r="K26" s="48" t="n">
-        <v>1715.60256</v>
+        <v>6616.14769</v>
       </c>
       <c r="L26" s="48" t="n">
-        <v>19989.63111</v>
+        <v>217.30728</v>
       </c>
       <c r="M26" s="48" t="n">
-        <v>17753.34745</v>
-      </c>
-    </row>
-    <row r="27" spans="1:13">
+        <v>372.37729</v>
+      </c>
+      <c r="N26" s="48" t="n">
+        <v>12.796</v>
+      </c>
+    </row>
+    <row r="27">
       <c r="A27" s="9" t="n"/>
-      <c r="B27" s="41" t="s">
-        <v>24</v>
+      <c r="B27" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Dividends from Affiliated Enterprises</t>
+        </is>
       </c>
       <c r="C27" s="48" t="n">
         <v>0</v>
@@ -1817,16 +1833,16 @@
         <v>0</v>
       </c>
       <c r="F27" s="48" t="n">
-        <v>5.661359999999999</v>
+        <v>26791.99384</v>
       </c>
       <c r="G27" s="48" t="n">
-        <v>127.26113</v>
+        <v>29712.95308</v>
       </c>
       <c r="H27" s="48" t="n">
-        <v>8.960319999999999</v>
+        <v>10654.63892</v>
       </c>
       <c r="I27" s="48" t="n">
-        <v>0</v>
+        <v>2894.12947</v>
       </c>
       <c r="J27" s="48" t="n">
         <v>12.61072</v>
@@ -1840,206 +1856,236 @@
       <c r="M27" s="48" t="n">
         <v>0</v>
       </c>
-    </row>
-    <row r="28" spans="1:13">
+      <c r="N27" s="48" t="n">
+        <v>3568.019</v>
+      </c>
+    </row>
+    <row r="28">
       <c r="A28" s="9" t="n"/>
-      <c r="B28" s="41" t="s">
-        <v>25</v>
+      <c r="B28" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-Interest Income</t>
+        </is>
       </c>
       <c r="C28" s="48" t="n">
-        <v>2303.26774</v>
+        <v>2085.95396</v>
       </c>
       <c r="D28" s="48" t="n">
-        <v>3277.44929</v>
+        <v>3513.717020000001</v>
       </c>
       <c r="E28" s="48" t="n">
-        <v>5332.89116</v>
+        <v>3400.07559</v>
       </c>
       <c r="F28" s="48" t="n">
-        <v>7633.194320000001</v>
+        <v>7349.509929999999</v>
       </c>
       <c r="G28" s="48" t="n">
-        <v>11211.85321</v>
+        <v>6480.90608</v>
       </c>
       <c r="H28" s="48" t="n">
-        <v>15842.49762</v>
+        <v>10352.49629</v>
       </c>
       <c r="I28" s="48" t="n">
-        <v>14620.32847</v>
+        <v>19942.09002</v>
       </c>
       <c r="J28" s="48" t="n">
-        <v>16620.79333</v>
+        <v>32488.95691</v>
       </c>
       <c r="K28" s="48" t="n">
-        <v>25568.13998</v>
+        <v>19603.55917</v>
       </c>
       <c r="L28" s="48" t="n">
-        <v>45346.6794</v>
+        <v>42799.37095</v>
       </c>
       <c r="M28" s="48" t="n">
-        <v>50511.2672</v>
-      </c>
-    </row>
-    <row r="29" spans="1:13">
+        <v>41449.15989</v>
+      </c>
+      <c r="N28" s="48" t="n">
+        <v>37457.435</v>
+      </c>
+    </row>
+    <row r="29">
       <c r="A29" s="9" t="n"/>
-      <c r="B29" s="41" t="s">
-        <v>26</v>
+      <c r="B29" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    4-Commissions</t>
+        </is>
       </c>
       <c r="C29" s="48" t="n">
         <v>109.96196</v>
       </c>
       <c r="D29" s="48" t="n">
-        <v>883.5367</v>
+        <v>813.41702</v>
       </c>
       <c r="E29" s="48" t="n">
-        <v>3203.36926</v>
+        <v>3075.31859</v>
       </c>
       <c r="F29" s="48" t="n">
-        <v>62.90218</v>
+        <v>1329.6841</v>
       </c>
       <c r="G29" s="48" t="n">
-        <v>56.41912</v>
+        <v>1.45581</v>
       </c>
       <c r="H29" s="48" t="n">
-        <v>449.85613</v>
+        <v>748.77102</v>
       </c>
       <c r="I29" s="48" t="n">
-        <v>197.62424</v>
+        <v>295.65198</v>
       </c>
       <c r="J29" s="48" t="n">
-        <v>2701.2447</v>
+        <v>3103.297579999999</v>
       </c>
       <c r="K29" s="48" t="n">
-        <v>713.78748</v>
+        <v>713.76413</v>
       </c>
       <c r="L29" s="48" t="n">
-        <v>340.24651</v>
+        <v>81.61167999999999</v>
       </c>
       <c r="M29" s="48" t="n">
-        <v>130.40893</v>
-      </c>
-    </row>
-    <row r="30" spans="1:13">
+        <v>119.81663</v>
+      </c>
+      <c r="N29" s="48" t="n">
+        <v>111.53</v>
+      </c>
+    </row>
+    <row r="30">
       <c r="A30" s="9" t="n"/>
-      <c r="B30" s="41" t="s">
-        <v>27</v>
+      <c r="B30" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    5-Provisions that are Cancelled</t>
+        </is>
       </c>
       <c r="C30" s="48" t="n">
-        <v>480.08635</v>
+        <v>471.13635</v>
       </c>
       <c r="D30" s="48" t="n">
-        <v>80.13885999999999</v>
+        <v>80.13885000000001</v>
       </c>
       <c r="E30" s="48" t="n">
-        <v>479.17067</v>
+        <v>129.16451</v>
       </c>
       <c r="F30" s="48" t="n">
-        <v>79.99272000000001</v>
+        <v>82.47319999999999</v>
       </c>
       <c r="G30" s="48" t="n">
-        <v>581.45753</v>
+        <v>591.01498</v>
       </c>
       <c r="H30" s="48" t="n">
-        <v>1049.29237</v>
+        <v>1101.89549</v>
       </c>
       <c r="I30" s="48" t="n">
-        <v>1026.28161</v>
+        <v>1185.19309</v>
       </c>
       <c r="J30" s="48" t="n">
-        <v>2031.5389</v>
+        <v>2285.26337</v>
       </c>
       <c r="K30" s="48" t="n">
-        <v>2415.23564</v>
+        <v>4112.1212</v>
       </c>
       <c r="L30" s="48" t="n">
-        <v>4313.995099999999</v>
+        <v>7477.526970000001</v>
       </c>
       <c r="M30" s="48" t="n">
-        <v>5559.09409</v>
-      </c>
-    </row>
-    <row r="31" spans="1:13">
+        <v>6050.56159</v>
+      </c>
+      <c r="N30" s="48" t="n">
+        <v>3689.95</v>
+      </c>
+    </row>
+    <row r="31">
       <c r="A31" s="9" t="n"/>
-      <c r="B31" s="41" t="s">
-        <v>28</v>
+      <c r="B31" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    6-Income from Sale of Securities</t>
+        </is>
       </c>
       <c r="C31" s="48" t="n">
-        <v>311.22027</v>
+        <v>276.57745</v>
       </c>
       <c r="D31" s="48" t="n">
-        <v>294.39878</v>
+        <v>248.41768</v>
       </c>
       <c r="E31" s="48" t="n">
-        <v>390.24705</v>
+        <v>273.96779</v>
       </c>
       <c r="F31" s="48" t="n">
-        <v>637.1398200000001</v>
+        <v>470.2687</v>
       </c>
       <c r="G31" s="48" t="n">
-        <v>467.0585600000001</v>
+        <v>211.40689</v>
       </c>
       <c r="H31" s="48" t="n">
-        <v>925.5739199999999</v>
+        <v>1007.81529</v>
       </c>
       <c r="I31" s="48" t="n">
-        <v>1782.50769</v>
+        <v>1686.71622</v>
       </c>
       <c r="J31" s="48" t="n">
-        <v>1195.92449</v>
+        <v>571.6306500000001</v>
       </c>
       <c r="K31" s="48" t="n">
-        <v>2164.29239</v>
+        <v>1557.06894</v>
       </c>
       <c r="L31" s="48" t="n">
-        <v>2227.04436</v>
+        <v>1388.77759</v>
       </c>
       <c r="M31" s="48" t="n">
-        <v>6115.86424</v>
-      </c>
-    </row>
-    <row r="32" spans="1:13">
+        <v>641.53026</v>
+      </c>
+      <c r="N31" s="48" t="n">
+        <v>3549.442</v>
+      </c>
+    </row>
+    <row r="32">
       <c r="A32" s="9" t="n"/>
-      <c r="B32" s="41" t="s">
-        <v>29</v>
+      <c r="B32" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    7-Exchange Profits</t>
+        </is>
       </c>
       <c r="C32" s="48" t="n">
-        <v>10153.49497</v>
+        <v>15052.48554</v>
       </c>
       <c r="D32" s="48" t="n">
-        <v>14216.04189</v>
+        <v>28478.70259</v>
       </c>
       <c r="E32" s="48" t="n">
-        <v>23884.57395</v>
+        <v>33827.49579</v>
       </c>
       <c r="F32" s="48" t="n">
-        <v>15006.91879</v>
+        <v>14624.72433</v>
       </c>
       <c r="G32" s="48" t="n">
-        <v>18609.91461</v>
+        <v>29469.00582</v>
       </c>
       <c r="H32" s="48" t="n">
-        <v>24444.56679</v>
+        <v>55429.58915</v>
       </c>
       <c r="I32" s="48" t="n">
-        <v>41037.65773</v>
+        <v>60421.05760000001</v>
       </c>
       <c r="J32" s="48" t="n">
-        <v>35064.30122</v>
+        <v>107933.36277</v>
       </c>
       <c r="K32" s="48" t="n">
-        <v>54979.7127</v>
+        <v>60255.03688000001</v>
       </c>
       <c r="L32" s="48" t="n">
-        <v>287268.70562</v>
+        <v>297855.68074</v>
       </c>
       <c r="M32" s="48" t="n">
-        <v>145200.17882</v>
-      </c>
-    </row>
-    <row r="33" spans="1:13">
+        <v>203050.78289</v>
+      </c>
+      <c r="N32" s="48" t="n">
+        <v>289636.507</v>
+      </c>
+    </row>
+    <row r="33">
       <c r="A33" s="9" t="n"/>
-      <c r="B33" s="41" t="s">
-        <v>30</v>
+      <c r="B33" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    8-Discount Income</t>
+        </is>
       </c>
       <c r="C33" s="48" t="n">
         <v>0</v>
@@ -2051,10 +2097,10 @@
         <v>208.798</v>
       </c>
       <c r="F33" s="48" t="n">
-        <v>28.84217</v>
+        <v>26</v>
       </c>
       <c r="G33" s="48" t="n">
-        <v>643.5076299999999</v>
+        <v>621.74436</v>
       </c>
       <c r="H33" s="48" t="n">
         <v>835.3242899999999</v>
@@ -2063,22 +2109,27 @@
         <v>889.8673100000001</v>
       </c>
       <c r="J33" s="48" t="n">
-        <v>16.57776</v>
+        <v>131.80636</v>
       </c>
       <c r="K33" s="48" t="n">
-        <v>158.89647</v>
+        <v>244.07123</v>
       </c>
       <c r="L33" s="48" t="n">
-        <v>606.71163</v>
+        <v>962.2538900000001</v>
       </c>
       <c r="M33" s="48" t="n">
-        <v>1561.77787</v>
-      </c>
-    </row>
-    <row r="34" spans="1:13">
+        <v>2180.48327</v>
+      </c>
+      <c r="N33" s="48" t="n">
+        <v>11707.578</v>
+      </c>
+    </row>
+    <row r="34">
       <c r="A34" s="9" t="n"/>
-      <c r="B34" s="41" t="s">
-        <v>31</v>
+      <c r="B34" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    9-Inflation Adjustment Profits</t>
+        </is>
       </c>
       <c r="C34" s="48" t="n">
         <v>0</v>
@@ -2087,7 +2138,7 @@
         <v>0</v>
       </c>
       <c r="E34" s="48" t="n">
-        <v>34.02072</v>
+        <v>0</v>
       </c>
       <c r="F34" s="48" t="n">
         <v>10.66492</v>
@@ -2096,10 +2147,10 @@
         <v>0</v>
       </c>
       <c r="H34" s="48" t="n">
-        <v>693.8917299999999</v>
+        <v>0</v>
       </c>
       <c r="I34" s="48" t="n">
-        <v>73.37217999999999</v>
+        <v>24.07359</v>
       </c>
       <c r="J34" s="48" t="n">
         <v>7.39497</v>
@@ -2108,289 +2159,329 @@
         <v>1.74672</v>
       </c>
       <c r="L34" s="48" t="n">
-        <v>1219.95773</v>
+        <v>1219.95766</v>
       </c>
       <c r="M34" s="48" t="n">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="1:13">
+      <c r="N34" s="48" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35">
       <c r="A35" s="9" t="n"/>
-      <c r="B35" s="41" t="s">
-        <v>32</v>
+      <c r="B35" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">   10-Other Income</t>
+        </is>
       </c>
       <c r="C35" s="48" t="n">
-        <v>7897.06138</v>
+        <v>1942.57755</v>
       </c>
       <c r="D35" s="48" t="n">
-        <v>12861.98117</v>
+        <v>5919.85821</v>
       </c>
       <c r="E35" s="48" t="n">
-        <v>9953.258309999999</v>
+        <v>8017.94204</v>
       </c>
       <c r="F35" s="48" t="n">
-        <v>20821.64598</v>
+        <v>11137.96081</v>
       </c>
       <c r="G35" s="48" t="n">
-        <v>29590.62133</v>
+        <v>18320.70206</v>
       </c>
       <c r="H35" s="48" t="n">
-        <v>34731.84201000001</v>
+        <v>22085.38458</v>
       </c>
       <c r="I35" s="48" t="n">
-        <v>41276.55229</v>
+        <v>36581.47309000001</v>
       </c>
       <c r="J35" s="48" t="n">
-        <v>44821.90119</v>
+        <v>36774.26041999999</v>
       </c>
       <c r="K35" s="48" t="n">
-        <v>51934.37454</v>
+        <v>42055.10624999999</v>
       </c>
       <c r="L35" s="48" t="n">
-        <v>69424.6001</v>
+        <v>51014.70284</v>
       </c>
       <c r="M35" s="48" t="n">
-        <v>76500.25834999999</v>
-      </c>
-    </row>
-    <row r="36" spans="1:13">
+        <v>63991.66999</v>
+      </c>
+      <c r="N35" s="48" t="n">
+        <v>75555.101</v>
+      </c>
+    </row>
+    <row r="36">
       <c r="A36" s="14" t="n"/>
-      <c r="B36" s="38" t="s">
-        <v>33</v>
+      <c r="B36" s="38" t="inlineStr">
+        <is>
+          <t>G-EXPENSES FROM OTHER OPERATIONS (-)</t>
+        </is>
       </c>
       <c r="C36" s="46" t="n">
-        <v>17563.82621</v>
+        <v>26951.40765</v>
       </c>
       <c r="D36" s="47" t="n">
-        <v>21627.6974</v>
+        <v>31118.32727</v>
       </c>
       <c r="E36" s="47" t="n">
-        <v>35067.02579000001</v>
+        <v>75878.08879000001</v>
       </c>
       <c r="F36" s="47" t="n">
-        <v>25935.32945</v>
+        <v>19938.38093</v>
       </c>
       <c r="G36" s="47" t="n">
-        <v>47146.42865000001</v>
+        <v>78666.02380999998</v>
       </c>
       <c r="H36" s="47" t="n">
-        <v>52341.54243000001</v>
+        <v>72914.55945999999</v>
       </c>
       <c r="I36" s="47" t="n">
-        <v>73957.41857000001</v>
+        <v>108885.44198</v>
       </c>
       <c r="J36" s="47" t="n">
-        <v>80069.55363999998</v>
+        <v>161777.53617</v>
       </c>
       <c r="K36" s="47" t="n">
-        <v>103418.15542</v>
+        <v>114400.98091</v>
       </c>
       <c r="L36" s="47" t="n">
-        <v>393769.03842</v>
+        <v>384363.35104</v>
       </c>
       <c r="M36" s="47" t="n">
-        <v>226750.46015</v>
-      </c>
-    </row>
-    <row r="37" spans="1:13">
+        <v>291876.76911</v>
+      </c>
+      <c r="N36" s="47" t="n">
+        <v>347882.817</v>
+      </c>
+    </row>
+    <row r="37">
       <c r="A37" s="9" t="n"/>
-      <c r="B37" s="3" t="s">
-        <v>34</v>
+      <c r="B37" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Commissions (-)</t>
+        </is>
       </c>
       <c r="C37" s="48" t="n">
-        <v>116.3691</v>
+        <v>185.16509</v>
       </c>
       <c r="D37" s="48" t="n">
-        <v>246.7485</v>
+        <v>521.8234200000001</v>
       </c>
       <c r="E37" s="48" t="n">
-        <v>477.21112</v>
+        <v>1004.71669</v>
       </c>
       <c r="F37" s="48" t="n">
-        <v>328.9760600000001</v>
+        <v>206.95666</v>
       </c>
       <c r="G37" s="48" t="n">
-        <v>877.4634199999999</v>
+        <v>1459.14401</v>
       </c>
       <c r="H37" s="48" t="n">
-        <v>1064.67046</v>
+        <v>1263.61008</v>
       </c>
       <c r="I37" s="48" t="n">
-        <v>1813.75492</v>
+        <v>1984.63867</v>
       </c>
       <c r="J37" s="48" t="n">
-        <v>1370.20709</v>
+        <v>907.03369</v>
       </c>
       <c r="K37" s="48" t="n">
-        <v>1682.99319</v>
+        <v>1267.33729</v>
       </c>
       <c r="L37" s="48" t="n">
-        <v>1647.14112</v>
+        <v>13554.35271</v>
       </c>
       <c r="M37" s="48" t="n">
-        <v>1991.09824</v>
-      </c>
-    </row>
-    <row r="38" spans="1:13">
+        <v>7035.81773</v>
+      </c>
+      <c r="N37" s="48" t="n">
+        <v>11081.788</v>
+      </c>
+    </row>
+    <row r="38">
       <c r="A38" s="9" t="n"/>
-      <c r="B38" s="3" t="s">
-        <v>35</v>
+      <c r="B38" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Provision Expenses (-)</t>
+        </is>
       </c>
       <c r="C38" s="48" t="n">
-        <v>1256.77172</v>
+        <v>1189.78286</v>
       </c>
       <c r="D38" s="48" t="n">
-        <v>1417.77607</v>
+        <v>1027.69297</v>
       </c>
       <c r="E38" s="48" t="n">
-        <v>842.2202199999998</v>
+        <v>458.6964299999999</v>
       </c>
       <c r="F38" s="48" t="n">
-        <v>3315.44518</v>
+        <v>1919.709</v>
       </c>
       <c r="G38" s="48" t="n">
-        <v>4234.04348</v>
+        <v>3825.05589</v>
       </c>
       <c r="H38" s="48" t="n">
-        <v>9161.14457</v>
+        <v>9260.724400000001</v>
       </c>
       <c r="I38" s="48" t="n">
-        <v>8759.400139999998</v>
+        <v>9882.222379999999</v>
       </c>
       <c r="J38" s="48" t="n">
-        <v>21093.5151</v>
+        <v>22886.53636</v>
       </c>
       <c r="K38" s="48" t="n">
-        <v>17581.32285</v>
+        <v>17313.19585</v>
       </c>
       <c r="L38" s="48" t="n">
-        <v>15278.5777</v>
+        <v>17800.71203</v>
       </c>
       <c r="M38" s="48" t="n">
-        <v>16493.07213</v>
-      </c>
-    </row>
-    <row r="39" spans="1:13">
+        <v>15500.44993</v>
+      </c>
+      <c r="N38" s="48" t="n">
+        <v>25965.029</v>
+      </c>
+    </row>
+    <row r="39">
       <c r="A39" s="9" t="n"/>
-      <c r="B39" s="3" t="s">
-        <v>36</v>
+      <c r="B39" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-Loss from Sale of Securities (-)</t>
+        </is>
       </c>
       <c r="C39" s="48" t="n">
-        <v>0.54671</v>
+        <v>0.26422</v>
       </c>
       <c r="D39" s="48" t="n">
         <v>0</v>
       </c>
       <c r="E39" s="48" t="n">
-        <v>6.23609</v>
+        <v>6.20724</v>
       </c>
       <c r="F39" s="48" t="n">
-        <v>105.62078</v>
+        <v>90.78003000000001</v>
       </c>
       <c r="G39" s="48" t="n">
-        <v>2299.84226</v>
+        <v>8.932690000000001</v>
       </c>
       <c r="H39" s="48" t="n">
         <v>76.74155</v>
       </c>
       <c r="I39" s="48" t="n">
-        <v>1031.78328</v>
+        <v>500.17966</v>
       </c>
       <c r="J39" s="48" t="n">
-        <v>158.45015</v>
+        <v>124.70869</v>
       </c>
       <c r="K39" s="48" t="n">
-        <v>836.47527</v>
+        <v>146.08727</v>
       </c>
       <c r="L39" s="48" t="n">
-        <v>3626.28488</v>
+        <v>3375.49233</v>
       </c>
       <c r="M39" s="48" t="n">
-        <v>6290.89543</v>
-      </c>
-    </row>
-    <row r="40" spans="1:13">
+        <v>578.86011</v>
+      </c>
+      <c r="N39" s="48" t="n">
+        <v>68.077</v>
+      </c>
+    </row>
+    <row r="40">
       <c r="A40" s="9" t="n"/>
-      <c r="B40" s="3" t="s">
-        <v>37</v>
+      <c r="B40" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    4-Exchange Losses (-)</t>
+        </is>
       </c>
       <c r="C40" s="48" t="n">
-        <v>13073.25882</v>
+        <v>16838.08903</v>
       </c>
       <c r="D40" s="48" t="n">
-        <v>16111.31085</v>
+        <v>27103.47449</v>
       </c>
       <c r="E40" s="48" t="n">
-        <v>28414.55974</v>
+        <v>70812.56609000001</v>
       </c>
       <c r="F40" s="48" t="n">
-        <v>14701.07921</v>
+        <v>11334.24602</v>
       </c>
       <c r="G40" s="48" t="n">
-        <v>27125.42778</v>
+        <v>66294.18738</v>
       </c>
       <c r="H40" s="48" t="n">
-        <v>23957.83301</v>
+        <v>54315.44433000001</v>
       </c>
       <c r="I40" s="48" t="n">
-        <v>48938.60918</v>
+        <v>85730.93756000001</v>
       </c>
       <c r="J40" s="48" t="n">
-        <v>46350.18440999999</v>
+        <v>122917.71046</v>
       </c>
       <c r="K40" s="48" t="n">
-        <v>68608.95845000001</v>
+        <v>82315.83604999998</v>
       </c>
       <c r="L40" s="48" t="n">
-        <v>319902.65738</v>
+        <v>326106.02048</v>
       </c>
       <c r="M40" s="48" t="n">
-        <v>167619.60615</v>
-      </c>
-    </row>
-    <row r="41" spans="1:13">
+        <v>234180.9154</v>
+      </c>
+      <c r="N40" s="48" t="n">
+        <v>265762.746</v>
+      </c>
+    </row>
+    <row r="41">
       <c r="A41" s="9" t="n"/>
-      <c r="B41" s="3" t="s">
-        <v>38</v>
+      <c r="B41" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    5-Discount Costs (-)</t>
+        </is>
       </c>
       <c r="C41" s="48" t="n">
-        <v>17.23148</v>
+        <v>0</v>
       </c>
       <c r="D41" s="48" t="n">
         <v>0</v>
       </c>
       <c r="E41" s="48" t="n">
-        <v>0.07918</v>
+        <v>0</v>
       </c>
       <c r="F41" s="48" t="n">
-        <v>3.24369</v>
+        <v>0</v>
       </c>
       <c r="G41" s="48" t="n">
-        <v>1355.55269</v>
+        <v>1194.84539</v>
       </c>
       <c r="H41" s="48" t="n">
-        <v>854.4665399999999</v>
+        <v>840.38473</v>
       </c>
       <c r="I41" s="48" t="n">
-        <v>326.7739800000001</v>
+        <v>326.77398</v>
       </c>
       <c r="J41" s="48" t="n">
-        <v>41.24259000000001</v>
+        <v>1787.81263</v>
       </c>
       <c r="K41" s="48" t="n">
-        <v>1273.44446</v>
+        <v>1424.66831</v>
       </c>
       <c r="L41" s="48" t="n">
-        <v>807.7440799999999</v>
+        <v>3931.6271</v>
       </c>
       <c r="M41" s="48" t="n">
-        <v>2869.76754</v>
-      </c>
-    </row>
-    <row r="42" spans="1:13">
+        <v>3320.30391</v>
+      </c>
+      <c r="N41" s="48" t="n">
+        <v>12423.171</v>
+      </c>
+    </row>
+    <row r="42">
       <c r="A42" s="9" t="n"/>
-      <c r="B42" s="3" t="s">
-        <v>39</v>
+      <c r="B42" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    6-Inflation Adjustment Losses (-)</t>
+        </is>
       </c>
       <c r="C42" s="48" t="n">
         <v>0</v>
@@ -2402,7 +2493,7 @@
         <v>0</v>
       </c>
       <c r="F42" s="48" t="n">
-        <v>318.41617</v>
+        <v>0</v>
       </c>
       <c r="G42" s="48" t="n">
         <v>0</v>
@@ -2420,598 +2511,676 @@
         <v>0</v>
       </c>
       <c r="L42" s="48" t="n">
-        <v>29.88143</v>
+        <v>0</v>
       </c>
       <c r="M42" s="48" t="n">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="1:13">
+      <c r="N42" s="48" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43">
       <c r="A43" s="9" t="n"/>
-      <c r="B43" s="3" t="s">
-        <v>40</v>
+      <c r="B43" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    7-Other Expenditures (-)</t>
+        </is>
       </c>
       <c r="C43" s="48" t="n">
-        <v>3099.64838</v>
+        <v>8738.106450000001</v>
       </c>
       <c r="D43" s="48" t="n">
-        <v>3851.86198</v>
+        <v>2465.33639</v>
       </c>
       <c r="E43" s="48" t="n">
-        <v>5326.71944</v>
+        <v>3595.902339999999</v>
       </c>
       <c r="F43" s="48" t="n">
-        <v>7162.548360000001</v>
+        <v>6386.689219999999</v>
       </c>
       <c r="G43" s="48" t="n">
-        <v>11254.09902</v>
+        <v>5883.858449999999</v>
       </c>
       <c r="H43" s="48" t="n">
-        <v>17226.6863</v>
+        <v>7157.65437</v>
       </c>
       <c r="I43" s="48" t="n">
-        <v>13079.3693</v>
+        <v>10452.96196</v>
       </c>
       <c r="J43" s="48" t="n">
-        <v>11055.9543</v>
+        <v>13153.73434</v>
       </c>
       <c r="K43" s="48" t="n">
-        <v>13434.9612</v>
+        <v>11933.85614</v>
       </c>
       <c r="L43" s="48" t="n">
-        <v>52476.75182999999</v>
+        <v>19595.14639</v>
       </c>
       <c r="M43" s="48" t="n">
-        <v>31486.02066</v>
-      </c>
-    </row>
-    <row r="44" spans="1:13">
+        <v>31260.42203</v>
+      </c>
+      <c r="N43" s="48" t="n">
+        <v>32582.006</v>
+      </c>
+    </row>
+    <row r="44">
       <c r="A44" s="14" t="n"/>
-      <c r="B44" s="38" t="s">
-        <v>41</v>
+      <c r="B44" s="38" t="inlineStr">
+        <is>
+          <t>H-FINANCING EXPENSES  (-)</t>
+        </is>
       </c>
       <c r="C44" s="46" t="n">
-        <v>24005.47811</v>
+        <v>28571.96968</v>
       </c>
       <c r="D44" s="47" t="n">
-        <v>23743.69537999999</v>
+        <v>24238.38894</v>
       </c>
       <c r="E44" s="47" t="n">
-        <v>37588.17397</v>
+        <v>35691.60513</v>
       </c>
       <c r="F44" s="47" t="n">
-        <v>59669.1896</v>
+        <v>52112.3295</v>
       </c>
       <c r="G44" s="47" t="n">
-        <v>73291.77717999999</v>
+        <v>72748.99919999999</v>
       </c>
       <c r="H44" s="47" t="n">
-        <v>121148.86094</v>
+        <v>120731.98727</v>
       </c>
       <c r="I44" s="47" t="n">
-        <v>140289.78817</v>
+        <v>178746.94216</v>
       </c>
       <c r="J44" s="47" t="n">
-        <v>179994.65156</v>
+        <v>159025.64647</v>
       </c>
       <c r="K44" s="47" t="n">
-        <v>234783.2625</v>
+        <v>208809.81018</v>
       </c>
       <c r="L44" s="47" t="n">
-        <v>351924.88811</v>
+        <v>293444.1572200001</v>
       </c>
       <c r="M44" s="47" t="n">
-        <v>384254.65837</v>
-      </c>
-    </row>
-    <row r="45" spans="1:13">
+        <v>380104.57169</v>
+      </c>
+      <c r="N44" s="47" t="n">
+        <v>363288.408</v>
+      </c>
+    </row>
+    <row r="45">
       <c r="A45" s="9" t="n"/>
-      <c r="B45" s="41" t="s">
-        <v>42</v>
+      <c r="B45" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Short-term Financing Expenses (-)</t>
+        </is>
       </c>
       <c r="C45" s="48" t="n">
-        <v>21820.93132</v>
+        <v>16159.06503</v>
       </c>
       <c r="D45" s="48" t="n">
-        <v>21712.63669</v>
+        <v>15630.35418</v>
       </c>
       <c r="E45" s="48" t="n">
-        <v>33557.17681</v>
+        <v>23196.24822</v>
       </c>
       <c r="F45" s="48" t="n">
-        <v>52235.24153</v>
+        <v>41433.21562</v>
       </c>
       <c r="G45" s="48" t="n">
-        <v>59103.12291999999</v>
+        <v>57676.5134</v>
       </c>
       <c r="H45" s="48" t="n">
-        <v>104028.37596</v>
+        <v>88339.93552</v>
       </c>
       <c r="I45" s="48" t="n">
-        <v>122371.09424</v>
+        <v>121530.22235</v>
       </c>
       <c r="J45" s="48" t="n">
-        <v>154426.99963</v>
+        <v>133905.56152</v>
       </c>
       <c r="K45" s="48" t="n">
-        <v>198566.7421</v>
+        <v>173083.38884</v>
       </c>
       <c r="L45" s="48" t="n">
-        <v>258345.46671</v>
+        <v>259742.11238</v>
       </c>
       <c r="M45" s="48" t="n">
-        <v>309825.84909</v>
-      </c>
-    </row>
-    <row r="46" spans="1:13">
+        <v>318482.0099</v>
+      </c>
+      <c r="N45" s="48" t="n">
+        <v>294493.483</v>
+      </c>
+    </row>
+    <row r="46">
       <c r="A46" s="9" t="n"/>
-      <c r="B46" s="41" t="s">
-        <v>43</v>
+      <c r="B46" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Long-term Financing Expenses (-)</t>
+        </is>
       </c>
       <c r="C46" s="48" t="n">
-        <v>2184.54679</v>
+        <v>12412.90465</v>
       </c>
       <c r="D46" s="48" t="n">
-        <v>2031.05869</v>
+        <v>8608.03476</v>
       </c>
       <c r="E46" s="48" t="n">
-        <v>4030.99716</v>
+        <v>12495.35691</v>
       </c>
       <c r="F46" s="48" t="n">
-        <v>7433.948070000001</v>
+        <v>10679.11388</v>
       </c>
       <c r="G46" s="48" t="n">
-        <v>14188.65426</v>
+        <v>15072.4858</v>
       </c>
       <c r="H46" s="48" t="n">
-        <v>17120.48498</v>
+        <v>32392.05175</v>
       </c>
       <c r="I46" s="48" t="n">
-        <v>17918.69393</v>
+        <v>57216.71981</v>
       </c>
       <c r="J46" s="48" t="n">
-        <v>25567.65193</v>
+        <v>25120.08495</v>
       </c>
       <c r="K46" s="48" t="n">
-        <v>36216.5204</v>
+        <v>35726.42134</v>
       </c>
       <c r="L46" s="48" t="n">
-        <v>93579.42140000001</v>
+        <v>33702.04484</v>
       </c>
       <c r="M46" s="48" t="n">
-        <v>74428.80928</v>
-      </c>
-    </row>
-    <row r="47" spans="1:13">
+        <v>61622.56179</v>
+      </c>
+      <c r="N46" s="48" t="n">
+        <v>68794.925</v>
+      </c>
+    </row>
+    <row r="47">
       <c r="A47" s="14" t="n"/>
-      <c r="B47" s="42" t="s">
-        <v>44</v>
+      <c r="B47" s="42" t="inlineStr">
+        <is>
+          <t>PROFIT BEFORE EXTRAORDINARY ITEMS</t>
+        </is>
       </c>
       <c r="C47" s="46" t="n">
-        <v>6497.77781</v>
+        <v>8550.46177</v>
       </c>
       <c r="D47" s="47" t="n">
-        <v>20706.02075</v>
+        <v>25393.07174</v>
       </c>
       <c r="E47" s="47" t="n">
-        <v>6672.47354</v>
+        <v>6628.631929999996</v>
       </c>
       <c r="F47" s="47" t="n">
-        <v>4292.488229999997</v>
+        <v>76523.92499000001</v>
       </c>
       <c r="G47" s="47" t="n">
-        <v>4883.66861</v>
+        <v>52115.97598999999</v>
       </c>
       <c r="H47" s="47" t="n">
-        <v>52263.08946</v>
+        <v>105447.46026</v>
       </c>
       <c r="I47" s="47" t="n">
-        <v>98310.02581000001</v>
+        <v>127171.47809</v>
       </c>
       <c r="J47" s="47" t="n">
-        <v>13131.77642</v>
+        <v>88161.38991000001</v>
       </c>
       <c r="K47" s="47" t="n">
-        <v>123263.22509</v>
+        <v>151544.46055</v>
       </c>
       <c r="L47" s="47" t="n">
-        <v>160167.30964</v>
+        <v>282065.12967</v>
       </c>
       <c r="M47" s="47" t="n">
-        <v>35271.28769999999</v>
-      </c>
-    </row>
-    <row r="48" spans="1:13">
+        <v>116100.84065</v>
+      </c>
+      <c r="N47" s="47" t="n">
+        <v>335847.494</v>
+      </c>
+    </row>
+    <row r="48">
       <c r="A48" s="14" t="n"/>
-      <c r="B48" s="42" t="s">
-        <v>45</v>
+      <c r="B48" s="42" t="inlineStr">
+        <is>
+          <t>I-EXTRAORDINARY INCOME AND PROFITS</t>
+        </is>
       </c>
       <c r="C48" s="46" t="n">
-        <v>15334.98734</v>
+        <v>7166.37869</v>
       </c>
       <c r="D48" s="47" t="n">
-        <v>17800.53273</v>
+        <v>8052.58448</v>
       </c>
       <c r="E48" s="47" t="n">
-        <v>19551.37292</v>
+        <v>13971.14259</v>
       </c>
       <c r="F48" s="47" t="n">
-        <v>40667.30263000001</v>
+        <v>23366.43242</v>
       </c>
       <c r="G48" s="47" t="n">
-        <v>55799.99997999999</v>
+        <v>32808.2613</v>
       </c>
       <c r="H48" s="47" t="n">
-        <v>59484.45768</v>
+        <v>30769.19813</v>
       </c>
       <c r="I48" s="47" t="n">
-        <v>57814.56757</v>
+        <v>45163.31878999999</v>
       </c>
       <c r="J48" s="47" t="n">
-        <v>88113.77572000001</v>
+        <v>69965.35034</v>
       </c>
       <c r="K48" s="47" t="n">
-        <v>90324.19407000001</v>
+        <v>62793.37415</v>
       </c>
       <c r="L48" s="47" t="n">
-        <v>122735.85882</v>
+        <v>94911.42528</v>
       </c>
       <c r="M48" s="47" t="n">
-        <v>140664.84769</v>
-      </c>
-    </row>
-    <row r="49" spans="1:13">
+        <v>126938.47352</v>
+      </c>
+      <c r="N48" s="47" t="n">
+        <v>154246.548</v>
+      </c>
+    </row>
+    <row r="49">
       <c r="A49" s="9" t="n"/>
-      <c r="B49" s="41" t="s">
-        <v>46</v>
+      <c r="B49" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Profits and Income from Previous Period</t>
+        </is>
       </c>
       <c r="C49" s="48" t="n">
-        <v>41.576</v>
+        <v>1</v>
       </c>
       <c r="D49" s="48" t="n">
-        <v>203.62773</v>
+        <v>1243.48176</v>
       </c>
       <c r="E49" s="48" t="n">
-        <v>198.61399</v>
+        <v>477.2729200000001</v>
       </c>
       <c r="F49" s="48" t="n">
-        <v>70.30596000000001</v>
+        <v>345.58596</v>
       </c>
       <c r="G49" s="48" t="n">
-        <v>906.2240800000001</v>
+        <v>495.04401</v>
       </c>
       <c r="H49" s="48" t="n">
-        <v>2457.10131</v>
+        <v>2456.15258</v>
       </c>
       <c r="I49" s="48" t="n">
-        <v>1254.39422</v>
+        <v>754.4544400000001</v>
       </c>
       <c r="J49" s="48" t="n">
-        <v>317.7366</v>
+        <v>185.06543</v>
       </c>
       <c r="K49" s="48" t="n">
-        <v>452.14554</v>
+        <v>749.87341</v>
       </c>
       <c r="L49" s="48" t="n">
-        <v>123.88941</v>
+        <v>10.66114</v>
       </c>
       <c r="M49" s="48" t="n">
-        <v>831.7679399999998</v>
-      </c>
-    </row>
-    <row r="50" spans="1:13">
+        <v>2224.03157</v>
+      </c>
+      <c r="N49" s="48" t="n">
+        <v>11884.527</v>
+      </c>
+    </row>
+    <row r="50">
       <c r="A50" s="9" t="n"/>
-      <c r="B50" s="41" t="s">
-        <v>47</v>
+      <c r="B50" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Other Extraordinary Profits and Income</t>
+        </is>
       </c>
       <c r="C50" s="48" t="n">
-        <v>15293.41134</v>
+        <v>7165.37869</v>
       </c>
       <c r="D50" s="48" t="n">
-        <v>17596.905</v>
+        <v>6809.10272</v>
       </c>
       <c r="E50" s="48" t="n">
-        <v>19352.75893</v>
+        <v>13493.86967</v>
       </c>
       <c r="F50" s="48" t="n">
-        <v>40596.99667</v>
+        <v>23020.84646</v>
       </c>
       <c r="G50" s="48" t="n">
-        <v>54893.7759</v>
+        <v>32313.21729</v>
       </c>
       <c r="H50" s="48" t="n">
-        <v>57027.35636999999</v>
+        <v>28313.04555</v>
       </c>
       <c r="I50" s="48" t="n">
-        <v>56560.17335</v>
+        <v>44408.86435</v>
       </c>
       <c r="J50" s="48" t="n">
-        <v>87796.03911999999</v>
+        <v>69780.28491</v>
       </c>
       <c r="K50" s="48" t="n">
-        <v>89872.04852999999</v>
+        <v>62043.50074</v>
       </c>
       <c r="L50" s="48" t="n">
-        <v>122611.96941</v>
+        <v>94900.76414</v>
       </c>
       <c r="M50" s="48" t="n">
-        <v>139833.07975</v>
-      </c>
-    </row>
-    <row r="51" spans="1:13">
+        <v>124714.44195</v>
+      </c>
+      <c r="N50" s="48" t="n">
+        <v>142362.021</v>
+      </c>
+    </row>
+    <row r="51">
       <c r="A51" s="14" t="n"/>
-      <c r="B51" s="38" t="s">
-        <v>48</v>
+      <c r="B51" s="38" t="inlineStr">
+        <is>
+          <t>J-EXTRA ORDINARY EXPENSES AND LOSSES (-)</t>
+        </is>
       </c>
       <c r="C51" s="46" t="n">
-        <v>11689.65909</v>
+        <v>10790.61302</v>
       </c>
       <c r="D51" s="47" t="n">
-        <v>11856.3479</v>
+        <v>5893.674919999999</v>
       </c>
       <c r="E51" s="47" t="n">
-        <v>36211.82435</v>
+        <v>33570.72314</v>
       </c>
       <c r="F51" s="47" t="n">
-        <v>41345.85604</v>
+        <v>39493.57765000001</v>
       </c>
       <c r="G51" s="47" t="n">
-        <v>38170.03444</v>
+        <v>34337.89631</v>
       </c>
       <c r="H51" s="47" t="n">
-        <v>59812.5143</v>
+        <v>42819.68878</v>
       </c>
       <c r="I51" s="47" t="n">
-        <v>67462.99185999999</v>
+        <v>75676.16695</v>
       </c>
       <c r="J51" s="47" t="n">
-        <v>78077.72435</v>
+        <v>83103.07267000001</v>
       </c>
       <c r="K51" s="47" t="n">
-        <v>69803.96036</v>
+        <v>64690.67242</v>
       </c>
       <c r="L51" s="47" t="n">
-        <v>79070.86233000002</v>
+        <v>60908.17399</v>
       </c>
       <c r="M51" s="47" t="n">
-        <v>110588.666</v>
-      </c>
-    </row>
-    <row r="52" spans="1:13">
+        <v>104980.92159</v>
+      </c>
+      <c r="N51" s="47" t="n">
+        <v>153046.367</v>
+      </c>
+    </row>
+    <row r="52">
       <c r="A52" s="9" t="n"/>
-      <c r="B52" s="41" t="s">
-        <v>49</v>
+      <c r="B52" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Losses from non-Operating Parts (-)</t>
+        </is>
       </c>
       <c r="C52" s="48" t="n">
-        <v>2378.24662</v>
+        <v>843.9252299999999</v>
       </c>
       <c r="D52" s="48" t="n">
-        <v>2565.72074</v>
+        <v>340.75383</v>
       </c>
       <c r="E52" s="48" t="n">
-        <v>1595.66503</v>
+        <v>1111.28716</v>
       </c>
       <c r="F52" s="48" t="n">
-        <v>5184.613850000001</v>
+        <v>415.18253</v>
       </c>
       <c r="G52" s="48" t="n">
-        <v>2196.35908</v>
+        <v>1722.33871</v>
       </c>
       <c r="H52" s="48" t="n">
-        <v>2867.5985</v>
+        <v>3661.35853</v>
       </c>
       <c r="I52" s="48" t="n">
-        <v>9585.560799999999</v>
+        <v>11818.8017</v>
       </c>
       <c r="J52" s="48" t="n">
-        <v>6223.03541</v>
+        <v>7056.16332</v>
       </c>
       <c r="K52" s="48" t="n">
-        <v>4299.979520000001</v>
+        <v>7785.95746</v>
       </c>
       <c r="L52" s="48" t="n">
-        <v>9873.124380000001</v>
+        <v>10873.67889</v>
       </c>
       <c r="M52" s="48" t="n">
-        <v>8106.55845</v>
-      </c>
-    </row>
-    <row r="53" spans="1:13">
+        <v>8863.012269999999</v>
+      </c>
+      <c r="N52" s="48" t="n">
+        <v>19773.486</v>
+      </c>
+    </row>
+    <row r="53">
       <c r="A53" s="9" t="n"/>
-      <c r="B53" s="41" t="s">
-        <v>50</v>
+      <c r="B53" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Losses from Previous Periods (-)</t>
+        </is>
       </c>
       <c r="C53" s="48" t="n">
-        <v>107.36864</v>
+        <v>39.23946</v>
       </c>
       <c r="D53" s="48" t="n">
-        <v>238.05639</v>
+        <v>178.62101</v>
       </c>
       <c r="E53" s="48" t="n">
-        <v>421.91242</v>
+        <v>373.81898</v>
       </c>
       <c r="F53" s="48" t="n">
-        <v>3657.59915</v>
+        <v>3125.89943</v>
       </c>
       <c r="G53" s="48" t="n">
-        <v>2270.87307</v>
+        <v>2317.28392</v>
       </c>
       <c r="H53" s="48" t="n">
-        <v>3359.471199999999</v>
+        <v>726.62573</v>
       </c>
       <c r="I53" s="48" t="n">
-        <v>689.22263</v>
+        <v>750.53826</v>
       </c>
       <c r="J53" s="48" t="n">
-        <v>2936.56466</v>
+        <v>3959.73156</v>
       </c>
       <c r="K53" s="48" t="n">
-        <v>2331.46452</v>
+        <v>1865.32593</v>
       </c>
       <c r="L53" s="48" t="n">
-        <v>2004.68835</v>
+        <v>1933.04897</v>
       </c>
       <c r="M53" s="48" t="n">
-        <v>9003.83625</v>
-      </c>
-    </row>
-    <row r="54" spans="1:13">
+        <v>8289.324280000001</v>
+      </c>
+      <c r="N53" s="48" t="n">
+        <v>3814.177</v>
+      </c>
+    </row>
+    <row r="54">
       <c r="A54" s="9" t="n"/>
-      <c r="B54" s="41" t="s">
-        <v>51</v>
+      <c r="B54" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-Other Extraordinary Expenses (-)</t>
+        </is>
       </c>
       <c r="C54" s="48" t="n">
-        <v>9204.043830000001</v>
+        <v>9907.448329999999</v>
       </c>
       <c r="D54" s="48" t="n">
-        <v>9052.570770000002</v>
+        <v>5374.30008</v>
       </c>
       <c r="E54" s="48" t="n">
-        <v>34194.2469</v>
+        <v>32085.617</v>
       </c>
       <c r="F54" s="48" t="n">
-        <v>32503.64304</v>
+        <v>35952.49569</v>
       </c>
       <c r="G54" s="48" t="n">
-        <v>33702.80229000001</v>
+        <v>30298.27368</v>
       </c>
       <c r="H54" s="48" t="n">
-        <v>53585.4446</v>
+        <v>38431.70452</v>
       </c>
       <c r="I54" s="48" t="n">
-        <v>57188.20843000001</v>
+        <v>63106.82699</v>
       </c>
       <c r="J54" s="48" t="n">
-        <v>68918.12428</v>
+        <v>72087.17778999999</v>
       </c>
       <c r="K54" s="48" t="n">
-        <v>63172.51632000001</v>
+        <v>55039.38903</v>
       </c>
       <c r="L54" s="48" t="n">
-        <v>67193.0496</v>
+        <v>48101.44613</v>
       </c>
       <c r="M54" s="48" t="n">
-        <v>93478.27130000001</v>
-      </c>
-    </row>
-    <row r="55" spans="1:13">
+        <v>87828.58504000001</v>
+      </c>
+      <c r="N54" s="48" t="n">
+        <v>129458.704</v>
+      </c>
+    </row>
+    <row r="55">
       <c r="A55" s="14" t="n"/>
-      <c r="B55" s="42" t="s">
-        <v>52</v>
+      <c r="B55" s="42" t="inlineStr">
+        <is>
+          <t>PROFIT OR LOSS BEFORE TAXES</t>
+        </is>
       </c>
       <c r="C55" s="46" t="n">
-        <v>10143.10606</v>
+        <v>4926.227440000001</v>
       </c>
       <c r="D55" s="47" t="n">
-        <v>26650.20557999999</v>
+        <v>27551.9813</v>
       </c>
       <c r="E55" s="47" t="n">
-        <v>-9987.97789</v>
+        <v>-12970.94862</v>
       </c>
       <c r="F55" s="47" t="n">
-        <v>3613.934820000004</v>
+        <v>60396.77976</v>
       </c>
       <c r="G55" s="47" t="n">
-        <v>22513.63415000001</v>
+        <v>50586.34098</v>
       </c>
       <c r="H55" s="47" t="n">
-        <v>51935.03284000001</v>
+        <v>93396.96961</v>
       </c>
       <c r="I55" s="47" t="n">
-        <v>88661.60152000001</v>
+        <v>96658.62993000001</v>
       </c>
       <c r="J55" s="47" t="n">
-        <v>23167.82779</v>
+        <v>75023.66758000001</v>
       </c>
       <c r="K55" s="47" t="n">
-        <v>143783.4588</v>
+        <v>149647.16228</v>
       </c>
       <c r="L55" s="47" t="n">
-        <v>203832.30613</v>
+        <v>316068.38096</v>
       </c>
       <c r="M55" s="47" t="n">
-        <v>65347.46939</v>
-      </c>
-    </row>
-    <row r="56" spans="1:13">
+        <v>138058.39258</v>
+      </c>
+      <c r="N55" s="47" t="n">
+        <v>337047.675</v>
+      </c>
+    </row>
+    <row r="56">
       <c r="A56" s="14" t="n"/>
-      <c r="B56" s="42" t="s">
-        <v>53</v>
+      <c r="B56" s="42" t="inlineStr">
+        <is>
+          <t>K-PROVISIONS FOR INC.TAX &amp; OTH.LIAB.TO GOV.</t>
+        </is>
       </c>
       <c r="C56" s="46" t="n">
-        <v>6763.58472</v>
+        <v>5884.069450000001</v>
       </c>
       <c r="D56" s="47" t="n">
-        <v>7791.49973</v>
+        <v>6847.798470000001</v>
       </c>
       <c r="E56" s="47" t="n">
-        <v>10372.36255</v>
+        <v>9990.845859999999</v>
       </c>
       <c r="F56" s="47" t="n">
-        <v>11953.13024</v>
+        <v>12537.87275</v>
       </c>
       <c r="G56" s="47" t="n">
-        <v>16290.60091</v>
+        <v>15343.29799</v>
       </c>
       <c r="H56" s="47" t="n">
-        <v>24208.92238</v>
+        <v>23558.46597</v>
       </c>
       <c r="I56" s="47" t="n">
-        <v>29657.98691</v>
+        <v>30141.71382</v>
       </c>
       <c r="J56" s="47" t="n">
-        <v>32118.7085</v>
+        <v>32838.28169</v>
       </c>
       <c r="K56" s="47" t="n">
-        <v>42740.97902</v>
+        <v>40077.36023000001</v>
       </c>
       <c r="L56" s="47" t="n">
-        <v>60135.06026999999</v>
+        <v>70481.51515000001</v>
       </c>
       <c r="M56" s="47" t="n">
-        <v>53431.51731</v>
-      </c>
-    </row>
-    <row r="57" spans="1:13">
+        <v>51714.81943</v>
+      </c>
+      <c r="N56" s="47" t="n">
+        <v>78773.575</v>
+      </c>
+    </row>
+    <row r="57">
       <c r="A57" s="14" t="n"/>
-      <c r="B57" s="42" t="s">
-        <v>54</v>
+      <c r="B57" s="42" t="inlineStr">
+        <is>
+          <t>NET PROFIT OR LOSS FOR THE FINANCIAL YEAR</t>
+        </is>
       </c>
       <c r="C57" s="46" t="n">
-        <v>3379.521339999999</v>
+        <v>-957.8420100000008</v>
       </c>
       <c r="D57" s="47" t="n">
-        <v>18858.70585</v>
+        <v>20704.18283</v>
       </c>
       <c r="E57" s="47" t="n">
-        <v>-20360.34044</v>
+        <v>-22961.79448</v>
       </c>
       <c r="F57" s="47" t="n">
-        <v>-8339.19542</v>
+        <v>47858.90701</v>
       </c>
       <c r="G57" s="47" t="n">
-        <v>6223.033240000001</v>
+        <v>35243.04298999999</v>
       </c>
       <c r="H57" s="47" t="n">
-        <v>27726.11046</v>
+        <v>69838.50364</v>
       </c>
       <c r="I57" s="47" t="n">
-        <v>59003.61460999999</v>
+        <v>66516.91611000001</v>
       </c>
       <c r="J57" s="47" t="n">
-        <v>-8950.880710000001</v>
+        <v>42185.38589</v>
       </c>
       <c r="K57" s="47" t="n">
-        <v>101042.47978</v>
+        <v>109569.80205</v>
       </c>
       <c r="L57" s="47" t="n">
-        <v>143697.24586</v>
+        <v>245586.86581</v>
       </c>
       <c r="M57" s="47" t="n">
-        <v>11915.95208</v>
-      </c>
-    </row>
-    <row r="58" spans="1:13">
+        <v>86343.57315000001</v>
+      </c>
+      <c r="N57" s="47" t="n">
+        <v>258274.1</v>
+      </c>
+    </row>
+    <row r="58">
       <c r="A58" s="9" t="n"/>
       <c r="B58" s="30" t="n"/>
       <c r="C58" s="27" t="n"/>
@@ -3025,47 +3194,53 @@
       <c r="K58" s="27" t="n"/>
       <c r="L58" s="27" t="n"/>
       <c r="M58" s="27" t="n"/>
-    </row>
-    <row r="59" spans="1:13">
+      <c r="N58" s="27" t="n"/>
+    </row>
+    <row r="59">
       <c r="A59" s="9" t="n"/>
-      <c r="B59" s="43" t="s">
-        <v>55</v>
+      <c r="B59" s="43" t="inlineStr">
+        <is>
+          <t>Number of Companies</t>
+        </is>
       </c>
       <c r="C59" s="35" t="n">
-        <v>146</v>
+        <v>72</v>
       </c>
       <c r="D59" s="35" t="n">
-        <v>225</v>
+        <v>104</v>
       </c>
       <c r="E59" s="35" t="n">
-        <v>317</v>
+        <v>160</v>
       </c>
       <c r="F59" s="35" t="n">
-        <v>410</v>
+        <v>199</v>
       </c>
       <c r="G59" s="35" t="n">
-        <v>299</v>
+        <v>170</v>
       </c>
       <c r="H59" s="35" t="n">
-        <v>387</v>
+        <v>211</v>
       </c>
       <c r="I59" s="35" t="n">
-        <v>446</v>
+        <v>254</v>
       </c>
       <c r="J59" s="35" t="n">
-        <v>553</v>
+        <v>312</v>
       </c>
       <c r="K59" s="35" t="n">
-        <v>678</v>
+        <v>379</v>
       </c>
       <c r="L59" s="35" t="n">
-        <v>273</v>
+        <v>186</v>
       </c>
       <c r="M59" s="35" t="n">
-        <v>321</v>
-      </c>
-    </row>
-    <row r="60" spans="1:13">
+        <v>218</v>
+      </c>
+      <c r="N59" s="35" t="n">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="60">
       <c r="A60" s="10" t="n"/>
       <c r="B60" s="29" t="n"/>
       <c r="C60" s="28" t="n"/>
@@ -3079,8 +3254,9 @@
       <c r="K60" s="28" t="n"/>
       <c r="L60" s="28" t="n"/>
       <c r="M60" s="28" t="n"/>
-    </row>
-    <row customHeight="1" ht="15.75" r="61" s="44" spans="1:13">
+      <c r="N60" s="28" t="n"/>
+    </row>
+    <row r="61" ht="15.75" customHeight="1" s="44">
       <c r="A61" s="5" t="n"/>
       <c r="B61" s="11" t="n"/>
       <c r="C61" s="11" t="n"/>
@@ -3094,8 +3270,9 @@
       <c r="K61" s="11" t="n"/>
       <c r="L61" s="11" t="n"/>
       <c r="M61" s="11" t="n"/>
-    </row>
-    <row customFormat="1" r="62" s="19" spans="1:13">
+      <c r="N61" s="11" t="n"/>
+    </row>
+    <row r="62" customFormat="1" s="19">
       <c r="A62" s="16" t="n"/>
       <c r="B62" s="18" t="n"/>
       <c r="C62" s="18" t="n"/>
@@ -3109,8 +3286,9 @@
       <c r="K62" s="18" t="n"/>
       <c r="L62" s="18" t="n"/>
       <c r="M62" s="18" t="n"/>
-    </row>
-    <row customFormat="1" r="63" s="23" spans="1:13">
+      <c r="N62" s="18" t="n"/>
+    </row>
+    <row r="63" customFormat="1" s="23">
       <c r="A63" s="20" t="n"/>
       <c r="B63" s="21" t="n"/>
       <c r="C63" s="22" t="n"/>
@@ -3124,8 +3302,9 @@
       <c r="K63" s="22" t="n"/>
       <c r="L63" s="22" t="n"/>
       <c r="M63" s="22" t="n"/>
-    </row>
-    <row customFormat="1" r="64" s="25" spans="1:13">
+      <c r="N63" s="22" t="n"/>
+    </row>
+    <row r="64" customFormat="1" s="25">
       <c r="C64" s="25" t="n"/>
       <c r="D64" s="25" t="n"/>
       <c r="E64" s="25" t="n"/>
@@ -3137,10 +3316,11 @@
       <c r="K64" s="25" t="n"/>
       <c r="L64" s="25" t="n"/>
       <c r="M64" s="25" t="n"/>
+      <c r="N64" s="25" t="n"/>
     </row>
   </sheetData>
   <printOptions gridLinesSet="0"/>
-  <pageMargins bottom="0.3937007874015748" footer="0.3543307086614174" header="0.3543307086614174" left="0.7480314960629921" right="0.1968503937007874" top="0.4724409448818898"/>
-  <pageSetup horizontalDpi="300" orientation="portrait" paperSize="9" scale="93" verticalDpi="300"/>
+  <pageMargins left="0.7480314960629921" right="0.1968503937007874" top="0.4724409448818898" bottom="0.3937007874015748" header="0.3543307086614174" footer="0.3543307086614174"/>
+  <pageSetup orientation="portrait" paperSize="9" scale="93" horizontalDpi="300" verticalDpi="300"/>
 </worksheet>
 </file>